--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_24_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_24_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>111591.5357511114</v>
+        <v>102335.7493706455</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3308635.993435107</v>
+        <v>3308635.993435108</v>
       </c>
     </row>
     <row r="11">
@@ -658,76 +658,76 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>18.21830727030012</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>16.04668504368034</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
       <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>18.21830727030012</v>
       </c>
-      <c r="U2" t="n">
+      <c r="Y2" t="n">
         <v>18.21830727030012</v>
-      </c>
-      <c r="V2" t="n">
-        <v>18.21830727030012</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.04668504368034</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1.504190801070976</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>14.54249424260935</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>18.21830727030012</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>18.21830727030012</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.21830727030012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -901,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -940,19 +940,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>0.1585647136001427</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>23.50971295904437</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>23.50971295904437</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>20.70735517432628</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>20.54879046072615</v>
       </c>
     </row>
     <row r="6">
@@ -983,19 +983,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>23.50971295904437</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>17.79601311665963</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>10.03700156004394</v>
+        <v>4.323301717659193</v>
       </c>
       <c r="J6" t="n">
         <v>3.775148425455178</v>
@@ -1031,10 +1031,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>3.183833028195925</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.183833028195925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>23.86249467691514</v>
+        <v>23.86249467691513</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.86249467691514</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>5.971114873554855</v>
       </c>
       <c r="H8" t="n">
-        <v>23.86249467691514</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1.027774177190938</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>14.01919626068103</v>
+        <v>14.01919626068104</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>23.86249467691513</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>23.86249467691513</v>
       </c>
       <c r="W8" t="n">
-        <v>6.998889050745815</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1223,16 +1223,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.86249467691514</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>23.86249467691514</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>23.86249467691514</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>10.00995232957613</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1265,10 +1265,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>23.86249467691513</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>23.86249467691513</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1277,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>23.86249467691513</v>
       </c>
       <c r="Y9" t="n">
-        <v>11.00813298185071</v>
+        <v>21.01808531142683</v>
       </c>
     </row>
     <row r="10">
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>3.479784596074262</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>3.479784596074287</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>168.458279867845</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>168.458279867845</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>191.255994400369</v>
       </c>
       <c r="G11" t="n">
-        <v>191.255994400369</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>191.255994400369</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>191.255994400369</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1448,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>101.4185428575284</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>44.64516768239916</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>138.5285367888426</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>182.8889700571583</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
         <v>191.255994400369</v>
       </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>27.81223218147673</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.49413443704394</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>161.4284329972273</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>191.255994400369</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>26.47880521537898</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>191.255994400369</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>191.255994400369</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.90314704719353</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>168.458279867845</v>
       </c>
       <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>191.255994400369</v>
-      </c>
-      <c r="W14" t="n">
-        <v>191.255994400369</v>
-      </c>
-      <c r="X14" t="n">
-        <v>191.255994400369</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>85.55513282065154</v>
       </c>
     </row>
     <row r="15">
@@ -1688,16 +1688,16 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1745,10 +1745,10 @@
         <v>182.8889700571583</v>
       </c>
       <c r="V15" t="n">
-        <v>183.1737044712416</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>191.255994400369</v>
+        <v>61.73456802022331</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1776,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>53.54237093774784</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.1924286780001</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1821,10 +1821,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>26.47880521537902</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>191.255994400369</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>11.78169276841575</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>284.411633278329</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>398.4033974688585</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>275.5104403857142</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.2034201735694</v>
+        <v>60.20342017356937</v>
       </c>
       <c r="T17" t="n">
         <v>210.4328844205746</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,25 +1922,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>84.86976168966714</v>
       </c>
       <c r="C18" t="n">
         <v>116.3308444476703</v>
       </c>
       <c r="D18" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>103.6549143897921</v>
       </c>
       <c r="F18" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>92.10077804644027</v>
       </c>
       <c r="H18" t="n">
-        <v>43.0641386565147</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>61.70507848721773</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>136.3802280967762</v>
@@ -1985,7 +1985,7 @@
         <v>202.9234074721264</v>
       </c>
       <c r="W18" t="n">
-        <v>71.24655507369592</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X18" t="n">
         <v>161.8425727710037</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>132.8656432662209</v>
+        <v>74.44668883123441</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.7455908937104</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>134.8116211299295</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2089,16 +2089,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>187.9118680656193</v>
       </c>
       <c r="F20" t="n">
-        <v>42.69537869101965</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>398.4033974688585</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>275.5104403857142</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>60.20342017356938</v>
       </c>
       <c r="T20" t="n">
         <v>210.4328844205746</v>
@@ -2140,13 +2140,13 @@
         <v>255.6199783641448</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C21" t="n">
         <v>116.3308444476703</v>
@@ -2171,7 +2171,7 @@
         <v>103.6549143897921</v>
       </c>
       <c r="F21" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>92.10077804644027</v>
@@ -2210,16 +2210,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>25.73905887264952</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>136.3802280967762</v>
       </c>
       <c r="U21" t="n">
         <v>182.8539051709984</v>
       </c>
       <c r="V21" t="n">
-        <v>202.9234074721264</v>
+        <v>57.3538709360633</v>
       </c>
       <c r="W21" t="n">
         <v>194.556163395115</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>100.9000210656619</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>102.4580684480146</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3363053356988</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2326,16 +2326,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>134.4207869981279</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
         <v>398.012519220714</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>158.8335544896516</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U23" t="n">
         <v>255.5887081042933</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2411,10 +2411,10 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G24" t="n">
-        <v>91.89163974602971</v>
+        <v>91.89163974602977</v>
       </c>
       <c r="H24" t="n">
-        <v>41.04430296570798</v>
+        <v>41.04430296570793</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>77.97941078688829</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>150.5856664684936</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>40.1615621630997</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,22 +2557,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>398.012519220714</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>51.29628209397736</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>356.5818516572488</v>
+        <v>73.17220160675571</v>
       </c>
     </row>
     <row r="27">
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
@@ -2724,13 +2724,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0.5190049372437429</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>150.5856664684936</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>42.04821338665991</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>136.9936226881249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>162.0697809757193</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.012519220714</v>
       </c>
       <c r="H29" t="n">
-        <v>271.5073585269046</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>51.29628209397736</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
@@ -2857,10 +2857,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>168.3225530673391</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>91.89163974602977</v>
       </c>
       <c r="H30" t="n">
-        <v>41.04430296570798</v>
+        <v>41.04430296570793</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>236.5300678317505</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>89.54621482524085</v>
+        <v>277.3267416342995</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>266.0384087210078</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>308.8575976432549</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
@@ -3040,13 +3040,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
         <v>398.012519220714</v>
       </c>
       <c r="H32" t="n">
-        <v>271.5073585269046</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3088,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>50.6203802649132</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3267416342995</v>
       </c>
       <c r="V34" t="n">
-        <v>83.68612448808574</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>266.0384087210078</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,22 +3268,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>398.012519220714</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>86.97230379648853</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,19 +3319,19 @@
         <v>51.29628209397736</v>
       </c>
       <c r="T35" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V35" t="n">
-        <v>95.10562193564981</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -3362,7 +3362,7 @@
         <v>91.89163974602977</v>
       </c>
       <c r="H36" t="n">
-        <v>41.04430296570798</v>
+        <v>41.04430296570791</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>57.82042628441735</v>
+        <v>57.82042628441737</v>
       </c>
       <c r="T36" t="n">
         <v>135.5372539824022</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>82.99696154115034</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3267416342995</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>266.0384087210078</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>391.5618418221662</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>238.9875657903709</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>51.29628209397736</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3632,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>57.82042628441737</v>
+        <v>57.82042628441735</v>
       </c>
       <c r="T39" t="n">
-        <v>135.5372539824023</v>
+        <v>135.5372539824022</v>
       </c>
       <c r="U39" t="n">
         <v>182.8401460722872</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.0405149303951</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.5702563680571</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>133.2527378018481</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3267416342995</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>32.69062406119418</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>388.3687548290472</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.012519220714</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3796,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>69.64792778099276</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3836,7 +3836,7 @@
         <v>91.89163974602977</v>
       </c>
       <c r="H42" t="n">
-        <v>41.04430296570791</v>
+        <v>41.04430296570798</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>133.2527378018481</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>67.97209018366931</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>92.37437208983802</v>
+        <v>277.3267416342995</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>134.5416663605332</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>100.9931435529563</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -3991,7 +3991,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.012519220714</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>255.5887081042933</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>153.138223853342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4073,7 +4073,7 @@
         <v>91.89163974602977</v>
       </c>
       <c r="H45" t="n">
-        <v>41.04430296570798</v>
+        <v>41.04430296570791</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>57.82042628441735</v>
+        <v>57.82042628441737</v>
       </c>
       <c r="T45" t="n">
         <v>135.5372539824022</v>
@@ -4140,10 +4140,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3267416342995</v>
+        <v>106.7151467774202</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>104.3548035765108</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4333,13 +4333,13 @@
         <v>1.457464581624009</v>
       </c>
       <c r="K2" t="n">
-        <v>5.219099475992287</v>
+        <v>5.219099475992273</v>
       </c>
       <c r="L2" t="n">
-        <v>15.88227649088184</v>
+        <v>15.88227649088182</v>
       </c>
       <c r="M2" t="n">
-        <v>32.89339907886392</v>
+        <v>32.89339907886389</v>
       </c>
       <c r="N2" t="n">
         <v>50.92952327646101</v>
@@ -4357,25 +4357,25 @@
         <v>72.87322908120046</v>
       </c>
       <c r="S2" t="n">
-        <v>72.87322908120046</v>
+        <v>56.66445630980618</v>
       </c>
       <c r="T2" t="n">
-        <v>54.47089850513974</v>
+        <v>56.66445630980618</v>
       </c>
       <c r="U2" t="n">
-        <v>36.06856792907902</v>
+        <v>56.66445630980618</v>
       </c>
       <c r="V2" t="n">
-        <v>17.6662373530183</v>
+        <v>56.66445630980618</v>
       </c>
       <c r="W2" t="n">
-        <v>17.6662373530183</v>
+        <v>56.66445630980618</v>
       </c>
       <c r="X2" t="n">
-        <v>17.6662373530183</v>
+        <v>38.26212573374546</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.6662373530183</v>
+        <v>19.85979515768473</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.457464581624009</v>
+        <v>56.66445630980618</v>
       </c>
       <c r="C3" t="n">
-        <v>1.457464581624009</v>
+        <v>56.66445630980618</v>
       </c>
       <c r="D3" t="n">
-        <v>1.457464581624009</v>
+        <v>38.26212573374546</v>
       </c>
       <c r="E3" t="n">
-        <v>1.457464581624009</v>
+        <v>38.26212573374546</v>
       </c>
       <c r="F3" t="n">
-        <v>1.457464581624009</v>
+        <v>19.85979515768473</v>
       </c>
       <c r="G3" t="n">
         <v>1.457464581624009</v>
@@ -4412,16 +4412,16 @@
         <v>1.457464581624009</v>
       </c>
       <c r="K3" t="n">
-        <v>1.457464581624009</v>
+        <v>5.886021080118655</v>
       </c>
       <c r="L3" t="n">
-        <v>14.93961824937915</v>
+        <v>10.63528474396711</v>
       </c>
       <c r="M3" t="n">
-        <v>32.97574244697626</v>
+        <v>28.67140894156423</v>
       </c>
       <c r="N3" t="n">
-        <v>51.01186664457337</v>
+        <v>46.70753313916134</v>
       </c>
       <c r="O3" t="n">
         <v>62.96599962173948</v>
@@ -4430,31 +4430,31 @@
         <v>72.87322908120046</v>
       </c>
       <c r="Q3" t="n">
-        <v>72.87322908120046</v>
+        <v>71.35384443365402</v>
       </c>
       <c r="R3" t="n">
-        <v>72.87322908120046</v>
+        <v>71.35384443365402</v>
       </c>
       <c r="S3" t="n">
-        <v>72.87322908120046</v>
+        <v>71.35384443365402</v>
       </c>
       <c r="T3" t="n">
-        <v>72.87322908120046</v>
+        <v>56.66445630980618</v>
       </c>
       <c r="U3" t="n">
-        <v>72.87322908120046</v>
+        <v>56.66445630980618</v>
       </c>
       <c r="V3" t="n">
-        <v>72.87322908120046</v>
+        <v>56.66445630980618</v>
       </c>
       <c r="W3" t="n">
-        <v>54.47089850513974</v>
+        <v>56.66445630980618</v>
       </c>
       <c r="X3" t="n">
-        <v>36.06856792907902</v>
+        <v>56.66445630980618</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.6662373530183</v>
+        <v>56.66445630980618</v>
       </c>
     </row>
     <row r="4">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.88077703672355</v>
+        <v>49.37514665095461</v>
       </c>
       <c r="C5" t="n">
-        <v>1.88077703672355</v>
+        <v>49.37514665095461</v>
       </c>
       <c r="D5" t="n">
-        <v>1.88077703672355</v>
+        <v>25.62796184383908</v>
       </c>
       <c r="E5" t="n">
         <v>1.88077703672355</v>
@@ -4588,31 +4588,31 @@
         <v>94.0388518361775</v>
       </c>
       <c r="Q5" t="n">
-        <v>94.0388518361775</v>
+        <v>93.87868545880362</v>
       </c>
       <c r="R5" t="n">
-        <v>94.0388518361775</v>
+        <v>93.87868545880362</v>
       </c>
       <c r="S5" t="n">
-        <v>70.29166702906197</v>
+        <v>93.87868545880362</v>
       </c>
       <c r="T5" t="n">
-        <v>46.54448222194644</v>
+        <v>93.87868545880362</v>
       </c>
       <c r="U5" t="n">
-        <v>25.62796184383908</v>
+        <v>93.87868545880362</v>
       </c>
       <c r="V5" t="n">
-        <v>25.62796184383908</v>
+        <v>93.87868545880362</v>
       </c>
       <c r="W5" t="n">
-        <v>25.62796184383908</v>
+        <v>93.87868545880362</v>
       </c>
       <c r="X5" t="n">
-        <v>25.62796184383908</v>
+        <v>93.87868545880362</v>
       </c>
       <c r="Y5" t="n">
-        <v>25.62796184383908</v>
+        <v>73.12233145807014</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57.55539932076711</v>
+        <v>10.06102970653605</v>
       </c>
       <c r="C6" t="n">
-        <v>57.55539932076711</v>
+        <v>10.06102970653605</v>
       </c>
       <c r="D6" t="n">
-        <v>57.55539932076711</v>
+        <v>10.06102970653605</v>
       </c>
       <c r="E6" t="n">
-        <v>33.80821451365158</v>
+        <v>10.06102970653605</v>
       </c>
       <c r="F6" t="n">
-        <v>33.80821451365158</v>
+        <v>10.06102970653605</v>
       </c>
       <c r="G6" t="n">
-        <v>15.83244368874286</v>
+        <v>10.06102970653605</v>
       </c>
       <c r="H6" t="n">
-        <v>15.83244368874286</v>
+        <v>10.06102970653605</v>
       </c>
       <c r="I6" t="n">
         <v>5.694058274557063</v>
@@ -4649,13 +4649,13 @@
         <v>1.88077703672355</v>
       </c>
       <c r="K6" t="n">
-        <v>1.88077703672355</v>
+        <v>8.19312939818548</v>
       </c>
       <c r="L6" t="n">
-        <v>17.89592671708687</v>
+        <v>24.2082790785488</v>
       </c>
       <c r="M6" t="n">
-        <v>39.59522696312115</v>
+        <v>46.04269444771658</v>
       </c>
       <c r="N6" t="n">
         <v>62.86984279257508</v>
@@ -4679,19 +4679,19 @@
         <v>57.55539932076711</v>
       </c>
       <c r="U6" t="n">
-        <v>57.55539932076711</v>
+        <v>33.80821451365158</v>
       </c>
       <c r="V6" t="n">
-        <v>57.55539932076711</v>
+        <v>10.06102970653605</v>
       </c>
       <c r="W6" t="n">
-        <v>57.55539932076711</v>
+        <v>10.06102970653605</v>
       </c>
       <c r="X6" t="n">
-        <v>57.55539932076711</v>
+        <v>10.06102970653605</v>
       </c>
       <c r="Y6" t="n">
-        <v>57.55539932076711</v>
+        <v>10.06102970653605</v>
       </c>
     </row>
     <row r="7">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.88077703672355</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="C7" t="n">
-        <v>1.88077703672355</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="D7" t="n">
-        <v>1.88077703672355</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="E7" t="n">
-        <v>1.88077703672355</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="F7" t="n">
         <v>1.88077703672355</v>
@@ -4770,7 +4770,7 @@
         <v>5.096769994497212</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.88077703672355</v>
+        <v>5.096769994497212</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>74.21958950419911</v>
+        <v>33.08211445057839</v>
       </c>
       <c r="C8" t="n">
-        <v>50.11605952751714</v>
+        <v>8.978584473896436</v>
       </c>
       <c r="D8" t="n">
-        <v>50.11605952751714</v>
+        <v>8.978584473896436</v>
       </c>
       <c r="E8" t="n">
-        <v>50.11605952751714</v>
+        <v>8.978584473896436</v>
       </c>
       <c r="F8" t="n">
-        <v>26.01252955083518</v>
+        <v>8.978584473896436</v>
       </c>
       <c r="G8" t="n">
-        <v>26.01252955083518</v>
+        <v>2.947155308689512</v>
       </c>
       <c r="H8" t="n">
-        <v>1.908999574153212</v>
+        <v>2.947155308689512</v>
       </c>
       <c r="I8" t="n">
-        <v>1.908999574153212</v>
+        <v>2.947155308689512</v>
       </c>
       <c r="J8" t="n">
-        <v>1.908999574153212</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="K8" t="n">
-        <v>8.629045391172411</v>
+        <v>8.629045391172383</v>
       </c>
       <c r="L8" t="n">
-        <v>22.96239275619894</v>
+        <v>22.96239275619888</v>
       </c>
       <c r="M8" t="n">
-        <v>44.05728702482666</v>
+        <v>44.05728702482661</v>
       </c>
       <c r="N8" t="n">
-        <v>66.24326259831412</v>
+        <v>66.24326259831405</v>
       </c>
       <c r="O8" t="n">
-        <v>85.02587025944868</v>
+        <v>85.02587025944864</v>
       </c>
       <c r="P8" t="n">
-        <v>95.44997870766058</v>
+        <v>95.44997870766052</v>
       </c>
       <c r="Q8" t="n">
-        <v>95.44997870766058</v>
+        <v>95.44997870766052</v>
       </c>
       <c r="R8" t="n">
-        <v>81.28917440394235</v>
+        <v>81.2891744039423</v>
       </c>
       <c r="S8" t="n">
-        <v>81.28917440394235</v>
+        <v>57.18564442726034</v>
       </c>
       <c r="T8" t="n">
-        <v>81.28917440394235</v>
+        <v>57.18564442726034</v>
       </c>
       <c r="U8" t="n">
-        <v>81.28917440394235</v>
+        <v>57.18564442726034</v>
       </c>
       <c r="V8" t="n">
-        <v>81.28917440394235</v>
+        <v>33.08211445057839</v>
       </c>
       <c r="W8" t="n">
-        <v>74.21958950419911</v>
+        <v>33.08211445057839</v>
       </c>
       <c r="X8" t="n">
-        <v>74.21958950419911</v>
+        <v>33.08211445057839</v>
       </c>
       <c r="Y8" t="n">
-        <v>74.21958950419911</v>
+        <v>33.08211445057839</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>84.33065246336693</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="C9" t="n">
-        <v>84.33065246336693</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="D9" t="n">
-        <v>84.33065246336693</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="E9" t="n">
-        <v>84.33065246336693</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="F9" t="n">
-        <v>60.22712248668496</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="G9" t="n">
-        <v>36.12359251000299</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="H9" t="n">
-        <v>12.02006253332102</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="I9" t="n">
-        <v>1.908999574153212</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="J9" t="n">
-        <v>1.908999574153212</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="K9" t="n">
-        <v>8.346945923252324</v>
+        <v>8.346945923252314</v>
       </c>
       <c r="L9" t="n">
-        <v>24.53097221925459</v>
+        <v>24.53097221925456</v>
       </c>
       <c r="M9" t="n">
-        <v>46.56245863347765</v>
+        <v>46.5624586334776</v>
       </c>
       <c r="N9" t="n">
-        <v>70.18632836362364</v>
+        <v>70.18632836362359</v>
       </c>
       <c r="O9" t="n">
-        <v>83.16654218853647</v>
+        <v>83.16654218853643</v>
       </c>
       <c r="P9" t="n">
-        <v>95.44997870766058</v>
+        <v>95.44997870766052</v>
       </c>
       <c r="Q9" t="n">
-        <v>95.44997870766058</v>
+        <v>95.44997870766052</v>
       </c>
       <c r="R9" t="n">
-        <v>95.44997870766058</v>
+        <v>95.44997870766052</v>
       </c>
       <c r="S9" t="n">
-        <v>95.44997870766058</v>
+        <v>95.44997870766052</v>
       </c>
       <c r="T9" t="n">
-        <v>95.44997870766058</v>
+        <v>71.34644873097857</v>
       </c>
       <c r="U9" t="n">
-        <v>95.44997870766058</v>
+        <v>47.24291875429661</v>
       </c>
       <c r="V9" t="n">
-        <v>95.44997870766058</v>
+        <v>47.24291875429661</v>
       </c>
       <c r="W9" t="n">
-        <v>95.44997870766058</v>
+        <v>47.24291875429661</v>
       </c>
       <c r="X9" t="n">
-        <v>95.44997870766058</v>
+        <v>23.13938877761466</v>
       </c>
       <c r="Y9" t="n">
-        <v>84.33065246336693</v>
+        <v>1.90899957415321</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.908999574153212</v>
+        <v>5.423933509581758</v>
       </c>
       <c r="C10" t="n">
-        <v>1.908999574153212</v>
+        <v>5.423933509581758</v>
       </c>
       <c r="D10" t="n">
-        <v>1.908999574153212</v>
+        <v>5.423933509581758</v>
       </c>
       <c r="E10" t="n">
-        <v>1.908999574153212</v>
+        <v>5.423933509581758</v>
       </c>
       <c r="F10" t="n">
-        <v>1.908999574153212</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="G10" t="n">
-        <v>1.908999574153212</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="H10" t="n">
-        <v>1.908999574153212</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="I10" t="n">
-        <v>1.908999574153212</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="J10" t="n">
-        <v>1.908999574153212</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="K10" t="n">
-        <v>1.908999574153212</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="L10" t="n">
-        <v>2.295468180757767</v>
+        <v>2.295468180757759</v>
       </c>
       <c r="M10" t="n">
-        <v>3.232416129329197</v>
+        <v>3.232416129329178</v>
       </c>
       <c r="N10" t="n">
-        <v>5.423933509581785</v>
+        <v>5.423933509581758</v>
       </c>
       <c r="O10" t="n">
-        <v>5.423933509581785</v>
+        <v>5.423933509581758</v>
       </c>
       <c r="P10" t="n">
-        <v>5.423933509581785</v>
+        <v>5.423933509581758</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.423933509581785</v>
+        <v>5.423933509581758</v>
       </c>
       <c r="R10" t="n">
-        <v>5.423933509581785</v>
+        <v>5.423933509581758</v>
       </c>
       <c r="S10" t="n">
-        <v>5.423933509581785</v>
+        <v>5.423933509581758</v>
       </c>
       <c r="T10" t="n">
-        <v>5.423933509581785</v>
+        <v>5.423933509581758</v>
       </c>
       <c r="U10" t="n">
-        <v>5.423933509581785</v>
+        <v>5.423933509581758</v>
       </c>
       <c r="V10" t="n">
-        <v>5.423933509581785</v>
+        <v>5.423933509581758</v>
       </c>
       <c r="W10" t="n">
-        <v>1.908999574153212</v>
+        <v>5.423933509581758</v>
       </c>
       <c r="X10" t="n">
-        <v>1.908999574153212</v>
+        <v>5.423933509581758</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.908999574153212</v>
+        <v>5.423933509581758</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>765.0239776014758</v>
+        <v>571.8361044697901</v>
       </c>
       <c r="C11" t="n">
-        <v>765.0239776014758</v>
+        <v>401.6762258154012</v>
       </c>
       <c r="D11" t="n">
-        <v>765.0239776014758</v>
+        <v>401.6762258154012</v>
       </c>
       <c r="E11" t="n">
-        <v>594.864098947087</v>
+        <v>401.6762258154012</v>
       </c>
       <c r="F11" t="n">
-        <v>401.6762258154012</v>
+        <v>208.4883526837154</v>
       </c>
       <c r="G11" t="n">
-        <v>208.4883526837153</v>
+        <v>208.4883526837154</v>
       </c>
       <c r="H11" t="n">
         <v>15.30047955202952</v>
       </c>
       <c r="I11" t="n">
-        <v>15.30047955202951</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="J11" t="n">
-        <v>61.4717287555292</v>
+        <v>61.47172875552928</v>
       </c>
       <c r="K11" t="n">
-        <v>138.9154718648985</v>
+        <v>138.9154718648987</v>
       </c>
       <c r="L11" t="n">
-        <v>240.9878195381907</v>
+        <v>240.9878195381909</v>
       </c>
       <c r="M11" t="n">
-        <v>359.7092571452449</v>
+        <v>359.7092571452451</v>
       </c>
       <c r="N11" t="n">
-        <v>481.1014755937833</v>
+        <v>481.1014755937835</v>
       </c>
       <c r="O11" t="n">
-        <v>593.5617252439823</v>
+        <v>593.5617252439827</v>
       </c>
       <c r="P11" t="n">
-        <v>683.9375338210157</v>
+        <v>683.9375338210159</v>
       </c>
       <c r="Q11" t="n">
-        <v>743.9779309475098</v>
+        <v>743.97793094751</v>
       </c>
       <c r="R11" t="n">
-        <v>765.0239776014758</v>
+        <v>765.023977601476</v>
       </c>
       <c r="S11" t="n">
-        <v>765.0239776014758</v>
+        <v>765.023977601476</v>
       </c>
       <c r="T11" t="n">
-        <v>765.0239776014758</v>
+        <v>765.023977601476</v>
       </c>
       <c r="U11" t="n">
-        <v>765.0239776014758</v>
+        <v>765.023977601476</v>
       </c>
       <c r="V11" t="n">
-        <v>765.0239776014758</v>
+        <v>571.8361044697901</v>
       </c>
       <c r="W11" t="n">
-        <v>765.0239776014758</v>
+        <v>571.8361044697901</v>
       </c>
       <c r="X11" t="n">
-        <v>765.0239776014758</v>
+        <v>571.8361044697901</v>
       </c>
       <c r="Y11" t="n">
-        <v>765.0239776014758</v>
+        <v>571.8361044697901</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>60.39660852414988</v>
+        <v>119.1404380367445</v>
       </c>
       <c r="C12" t="n">
-        <v>60.39660852414988</v>
+        <v>119.1404380367445</v>
       </c>
       <c r="D12" t="n">
-        <v>60.39660852414988</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="E12" t="n">
-        <v>60.39660852414988</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="F12" t="n">
-        <v>60.39660852414988</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="G12" t="n">
         <v>15.30047955202952</v>
@@ -5129,43 +5129,43 @@
         <v>175.3234702521545</v>
       </c>
       <c r="M12" t="n">
-        <v>272.7294895500567</v>
+        <v>272.7294895500566</v>
       </c>
       <c r="N12" t="n">
-        <v>375.0549611369269</v>
+        <v>375.0549611369267</v>
       </c>
       <c r="O12" t="n">
-        <v>465.0520600155971</v>
+        <v>465.052060015597</v>
       </c>
       <c r="P12" t="n">
-        <v>534.1410428855888</v>
+        <v>534.1410428855887</v>
       </c>
       <c r="Q12" t="n">
-        <v>572.2133288600027</v>
+        <v>572.2133288600025</v>
       </c>
       <c r="R12" t="n">
-        <v>578.2486299851296</v>
+        <v>578.2486299851295</v>
       </c>
       <c r="S12" t="n">
-        <v>578.2486299851296</v>
+        <v>578.2486299851295</v>
       </c>
       <c r="T12" t="n">
-        <v>438.3208150469047</v>
+        <v>578.2486299851295</v>
       </c>
       <c r="U12" t="n">
-        <v>253.5844816558357</v>
+        <v>578.2486299851295</v>
       </c>
       <c r="V12" t="n">
-        <v>60.39660852414988</v>
+        <v>578.2486299851295</v>
       </c>
       <c r="W12" t="n">
-        <v>60.39660852414988</v>
+        <v>385.0607568534436</v>
       </c>
       <c r="X12" t="n">
-        <v>60.39660852414988</v>
+        <v>221.5834106201065</v>
       </c>
       <c r="Y12" t="n">
-        <v>60.39660852414988</v>
+        <v>221.5834106201065</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>43.39364337170298</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="C13" t="n">
-        <v>43.39364337170298</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="D13" t="n">
-        <v>43.39364337170298</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="E13" t="n">
-        <v>43.39364337170298</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="F13" t="n">
-        <v>43.39364337170298</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="G13" t="n">
-        <v>43.39364337170298</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="H13" t="n">
-        <v>43.39364337170298</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="I13" t="n">
         <v>15.30047955202952</v>
@@ -5202,10 +5202,10 @@
         <v>23.00527047835667</v>
       </c>
       <c r="K13" t="n">
-        <v>48.48500502844416</v>
+        <v>48.48500502844415</v>
       </c>
       <c r="L13" t="n">
-        <v>85.9499850135925</v>
+        <v>85.94998501359247</v>
       </c>
       <c r="M13" t="n">
         <v>125.9810244199253</v>
@@ -5223,28 +5223,28 @@
         <v>235.2346205780376</v>
       </c>
       <c r="R13" t="n">
-        <v>206.4526666012256</v>
+        <v>235.2346205780376</v>
       </c>
       <c r="S13" t="n">
-        <v>43.39364337170298</v>
+        <v>235.2346205780376</v>
       </c>
       <c r="T13" t="n">
-        <v>43.39364337170298</v>
+        <v>42.04674744635173</v>
       </c>
       <c r="U13" t="n">
-        <v>43.39364337170298</v>
+        <v>42.04674744635173</v>
       </c>
       <c r="V13" t="n">
-        <v>43.39364337170298</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="W13" t="n">
-        <v>43.39364337170298</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="X13" t="n">
-        <v>43.39364337170298</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="Y13" t="n">
-        <v>43.39364337170298</v>
+        <v>15.30047955202952</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>15.30047955202952</v>
+        <v>208.4883526837153</v>
       </c>
       <c r="C14" t="n">
-        <v>15.30047955202952</v>
+        <v>208.4883526837153</v>
       </c>
       <c r="D14" t="n">
-        <v>15.30047955202952</v>
+        <v>208.4883526837153</v>
       </c>
       <c r="E14" t="n">
-        <v>15.30047955202952</v>
+        <v>208.4883526837153</v>
       </c>
       <c r="F14" t="n">
-        <v>15.30047955202952</v>
+        <v>208.4883526837153</v>
       </c>
       <c r="G14" t="n">
         <v>15.30047955202952</v>
@@ -5275,7 +5275,7 @@
         <v>15.30047955202952</v>
       </c>
       <c r="I14" t="n">
-        <v>15.30047955202952</v>
+        <v>15.30047955202951</v>
       </c>
       <c r="J14" t="n">
         <v>61.47172875552928</v>
@@ -5299,31 +5299,31 @@
         <v>683.9375338210158</v>
       </c>
       <c r="Q14" t="n">
-        <v>743.97793094751</v>
+        <v>743.9779309475098</v>
       </c>
       <c r="R14" t="n">
-        <v>765.023977601476</v>
+        <v>765.0239776014758</v>
       </c>
       <c r="S14" t="n">
-        <v>681.2834250285532</v>
+        <v>765.0239776014758</v>
       </c>
       <c r="T14" t="n">
-        <v>681.2834250285532</v>
+        <v>765.0239776014758</v>
       </c>
       <c r="U14" t="n">
-        <v>681.2834250285532</v>
+        <v>594.864098947087</v>
       </c>
       <c r="V14" t="n">
-        <v>488.0955518968674</v>
+        <v>594.864098947087</v>
       </c>
       <c r="W14" t="n">
-        <v>294.9076787651816</v>
+        <v>594.864098947087</v>
       </c>
       <c r="X14" t="n">
-        <v>101.7198056334957</v>
+        <v>594.864098947087</v>
       </c>
       <c r="Y14" t="n">
-        <v>15.30047955202952</v>
+        <v>401.6762258154012</v>
       </c>
     </row>
     <row r="15">
@@ -5333,16 +5333,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15.30047955202952</v>
+        <v>331.1541470786834</v>
       </c>
       <c r="C15" t="n">
-        <v>15.30047955202952</v>
+        <v>213.6482435961881</v>
       </c>
       <c r="D15" t="n">
-        <v>15.30047955202952</v>
+        <v>213.6482435961881</v>
       </c>
       <c r="E15" t="n">
-        <v>15.30047955202952</v>
+        <v>108.9463098691254</v>
       </c>
       <c r="F15" t="n">
         <v>15.30047955202952</v>
@@ -5357,7 +5357,7 @@
         <v>15.6327953996678</v>
       </c>
       <c r="J15" t="n">
-        <v>40.07417499003835</v>
+        <v>40.07417499003834</v>
       </c>
       <c r="K15" t="n">
         <v>94.54854469344613</v>
@@ -5393,16 +5393,16 @@
         <v>393.5122965940604</v>
       </c>
       <c r="V15" t="n">
-        <v>208.4883526837154</v>
+        <v>393.5122965940604</v>
       </c>
       <c r="W15" t="n">
-        <v>15.30047955202952</v>
+        <v>331.1541470786834</v>
       </c>
       <c r="X15" t="n">
-        <v>15.30047955202952</v>
+        <v>331.1541470786834</v>
       </c>
       <c r="Y15" t="n">
-        <v>15.30047955202952</v>
+        <v>331.1541470786834</v>
       </c>
     </row>
     <row r="16">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>235.2346205780376</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="C16" t="n">
-        <v>235.2346205780376</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="D16" t="n">
-        <v>235.2346205780376</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="E16" t="n">
-        <v>235.2346205780376</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="F16" t="n">
-        <v>181.1514176106155</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="G16" t="n">
         <v>15.30047955202952</v>
@@ -5469,19 +5469,19 @@
         <v>235.2346205780376</v>
       </c>
       <c r="U16" t="n">
-        <v>235.2346205780376</v>
+        <v>208.4883526837153</v>
       </c>
       <c r="V16" t="n">
-        <v>235.2346205780376</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="W16" t="n">
-        <v>235.2346205780376</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="X16" t="n">
-        <v>235.2346205780376</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="Y16" t="n">
-        <v>235.2346205780376</v>
+        <v>15.30047955202952</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>327.6533457255631</v>
+        <v>732.9906157706737</v>
       </c>
       <c r="C17" t="n">
-        <v>327.6533457255631</v>
+        <v>721.0899160045972</v>
       </c>
       <c r="D17" t="n">
-        <v>327.6533457255631</v>
+        <v>721.0899160045972</v>
       </c>
       <c r="E17" t="n">
-        <v>327.6533457255631</v>
+        <v>721.0899160045972</v>
       </c>
       <c r="F17" t="n">
-        <v>40.36886766664494</v>
+        <v>721.0899160045972</v>
       </c>
       <c r="G17" t="n">
-        <v>40.36886766664494</v>
+        <v>318.662241793629</v>
       </c>
       <c r="H17" t="n">
-        <v>40.36886766664494</v>
+        <v>40.36886766664496</v>
       </c>
       <c r="I17" t="n">
-        <v>78.38883072061913</v>
+        <v>78.38883072061935</v>
       </c>
       <c r="J17" t="n">
-        <v>208.2614440185939</v>
+        <v>208.2614440185943</v>
       </c>
       <c r="K17" t="n">
-        <v>411.1518345652757</v>
+        <v>411.1518345652763</v>
       </c>
       <c r="L17" t="n">
-        <v>668.8518411359171</v>
+        <v>668.8518411359178</v>
       </c>
       <c r="M17" t="n">
-        <v>960.7390355058577</v>
+        <v>960.7390355058582</v>
       </c>
       <c r="N17" t="n">
         <v>1258.099013700931</v>
       </c>
       <c r="O17" t="n">
-        <v>1536.720629021587</v>
+        <v>1536.720629021588</v>
       </c>
       <c r="P17" t="n">
-        <v>1768.911318919296</v>
+        <v>1768.911318919297</v>
       </c>
       <c r="Q17" t="n">
-        <v>1935.448785891971</v>
+        <v>1935.448785891972</v>
       </c>
       <c r="R17" t="n">
-        <v>2018.443383332247</v>
+        <v>2018.443383332248</v>
       </c>
       <c r="S17" t="n">
-        <v>1957.631847803389</v>
+        <v>1957.63184780339</v>
       </c>
       <c r="T17" t="n">
-        <v>1745.073378691697</v>
+        <v>1745.073378691698</v>
       </c>
       <c r="U17" t="n">
-        <v>1486.871380344076</v>
+        <v>1486.871380344077</v>
       </c>
       <c r="V17" t="n">
-        <v>1129.381965470326</v>
+        <v>1129.381965470327</v>
       </c>
       <c r="W17" t="n">
-        <v>732.9906157706728</v>
+        <v>732.9906157706737</v>
       </c>
       <c r="X17" t="n">
-        <v>732.9906157706728</v>
+        <v>732.9906157706737</v>
       </c>
       <c r="Y17" t="n">
-        <v>327.6533457255631</v>
+        <v>732.9906157706737</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>503.5616236340892</v>
+        <v>355.6077938120012</v>
       </c>
       <c r="C18" t="n">
-        <v>386.055720151594</v>
+        <v>238.101890329506</v>
       </c>
       <c r="D18" t="n">
-        <v>282.215761666879</v>
+        <v>238.101890329506</v>
       </c>
       <c r="E18" t="n">
-        <v>177.5138279398162</v>
+        <v>133.3999566024432</v>
       </c>
       <c r="F18" t="n">
-        <v>83.8679976227204</v>
+        <v>133.3999566024432</v>
       </c>
       <c r="G18" t="n">
-        <v>83.8679976227204</v>
+        <v>40.36886766664496</v>
       </c>
       <c r="H18" t="n">
-        <v>40.36886766664494</v>
+        <v>40.36886766664496</v>
       </c>
       <c r="I18" t="n">
-        <v>58.86830103375435</v>
+        <v>58.86830103375439</v>
       </c>
       <c r="J18" t="n">
-        <v>133.1616396670456</v>
+        <v>133.1616396670457</v>
       </c>
       <c r="K18" t="n">
-        <v>272.8409476780163</v>
+        <v>272.8409476780165</v>
       </c>
       <c r="L18" t="n">
-        <v>468.1844277337206</v>
+        <v>468.184427733721</v>
       </c>
       <c r="M18" t="n">
-        <v>699.2865462800107</v>
+        <v>699.2865462800114</v>
       </c>
       <c r="N18" t="n">
-        <v>938.8466550372144</v>
+        <v>938.8466550372153</v>
       </c>
       <c r="O18" t="n">
-        <v>1154.386635964133</v>
+        <v>1154.386635964134</v>
       </c>
       <c r="P18" t="n">
-        <v>1324.234849733836</v>
+        <v>1324.234849733837</v>
       </c>
       <c r="Q18" t="n">
-        <v>1429.662013197</v>
+        <v>1429.662013197001</v>
       </c>
       <c r="R18" t="n">
-        <v>1468.458297201825</v>
+        <v>1468.458297201827</v>
       </c>
       <c r="S18" t="n">
-        <v>1406.129935093525</v>
+        <v>1468.458297201827</v>
       </c>
       <c r="T18" t="n">
-        <v>1268.372128935165</v>
+        <v>1330.700491043467</v>
       </c>
       <c r="U18" t="n">
-        <v>1083.671214621025</v>
+        <v>1145.999576729327</v>
       </c>
       <c r="V18" t="n">
-        <v>878.6980757602914</v>
+        <v>941.0264378685936</v>
       </c>
       <c r="W18" t="n">
-        <v>806.7318585141339</v>
+        <v>744.5050607018107</v>
       </c>
       <c r="X18" t="n">
-        <v>643.2545122807968</v>
+        <v>581.0277144684736</v>
       </c>
       <c r="Y18" t="n">
-        <v>503.5616236340892</v>
+        <v>441.334825821766</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>40.36886766664494</v>
+        <v>341.9418091046651</v>
       </c>
       <c r="C19" t="n">
-        <v>40.36886766664494</v>
+        <v>341.9418091046651</v>
       </c>
       <c r="D19" t="n">
-        <v>40.36886766664494</v>
+        <v>341.9418091046651</v>
       </c>
       <c r="E19" t="n">
-        <v>40.36886766664494</v>
+        <v>341.9418091046651</v>
       </c>
       <c r="F19" t="n">
-        <v>40.36886766664494</v>
+        <v>341.9418091046651</v>
       </c>
       <c r="G19" t="n">
-        <v>40.36886766664494</v>
+        <v>176.5422223433415</v>
       </c>
       <c r="H19" t="n">
-        <v>40.36886766664494</v>
+        <v>40.36886766664496</v>
       </c>
       <c r="I19" t="n">
-        <v>40.36886766664494</v>
+        <v>40.36886766664496</v>
       </c>
       <c r="J19" t="n">
-        <v>79.34917562875836</v>
+        <v>79.34917562875842</v>
       </c>
       <c r="K19" t="n">
-        <v>156.2241921278427</v>
+        <v>156.2241921278428</v>
       </c>
       <c r="L19" t="n">
-        <v>259.4574382314491</v>
+        <v>259.4574382314493</v>
       </c>
       <c r="M19" t="n">
-        <v>368.8318928683416</v>
+        <v>368.8318928683419</v>
       </c>
       <c r="N19" t="n">
-        <v>476.8825153976118</v>
+        <v>476.8825153976122</v>
       </c>
       <c r="O19" t="n">
-        <v>573.3838768543142</v>
+        <v>573.3838768543146</v>
       </c>
       <c r="P19" t="n">
-        <v>652.8598923965154</v>
+        <v>652.859892396516</v>
       </c>
       <c r="Q19" t="n">
-        <v>698.8519520837411</v>
+        <v>698.8519520837417</v>
       </c>
       <c r="R19" t="n">
-        <v>698.8519520837411</v>
+        <v>698.8519520837417</v>
       </c>
       <c r="S19" t="n">
-        <v>698.8519520837411</v>
+        <v>698.8519520837417</v>
       </c>
       <c r="T19" t="n">
-        <v>698.8519520837411</v>
+        <v>698.8519520837417</v>
       </c>
       <c r="U19" t="n">
-        <v>698.8519520837411</v>
+        <v>698.8519520837417</v>
       </c>
       <c r="V19" t="n">
-        <v>417.14048469177</v>
+        <v>417.1404846917706</v>
       </c>
       <c r="W19" t="n">
-        <v>417.14048469177</v>
+        <v>417.1404846917706</v>
       </c>
       <c r="X19" t="n">
-        <v>174.5765881375752</v>
+        <v>417.1404846917706</v>
       </c>
       <c r="Y19" t="n">
-        <v>174.5765881375752</v>
+        <v>417.1404846917706</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1190.193500999184</v>
+        <v>655.3030172202946</v>
       </c>
       <c r="C20" t="n">
-        <v>1190.193500999184</v>
+        <v>655.3030172202946</v>
       </c>
       <c r="D20" t="n">
-        <v>1190.193500999184</v>
+        <v>655.3030172202946</v>
       </c>
       <c r="E20" t="n">
-        <v>764.2165611470413</v>
+        <v>465.4930494772448</v>
       </c>
       <c r="F20" t="n">
-        <v>721.0899160045972</v>
+        <v>40.36886766664496</v>
       </c>
       <c r="G20" t="n">
-        <v>318.6622417936289</v>
+        <v>40.36886766664496</v>
       </c>
       <c r="H20" t="n">
-        <v>40.36886766664494</v>
+        <v>40.36886766664496</v>
       </c>
       <c r="I20" t="n">
-        <v>78.3888307206189</v>
+        <v>78.38883072061913</v>
       </c>
       <c r="J20" t="n">
-        <v>208.2614440185939</v>
+        <v>208.2614440185941</v>
       </c>
       <c r="K20" t="n">
-        <v>411.1518345652757</v>
+        <v>411.151834565276</v>
       </c>
       <c r="L20" t="n">
-        <v>668.8518411359171</v>
+        <v>668.8518411359175</v>
       </c>
       <c r="M20" t="n">
-        <v>960.7390355058576</v>
+        <v>960.7390355058583</v>
       </c>
       <c r="N20" t="n">
         <v>1258.099013700931</v>
@@ -5770,34 +5770,34 @@
         <v>1536.720629021588</v>
       </c>
       <c r="P20" t="n">
-        <v>1768.911318919296</v>
+        <v>1768.911318919297</v>
       </c>
       <c r="Q20" t="n">
-        <v>1935.448785891971</v>
+        <v>1935.448785891972</v>
       </c>
       <c r="R20" t="n">
-        <v>2018.443383332247</v>
+        <v>2018.443383332248</v>
       </c>
       <c r="S20" t="n">
-        <v>2018.443383332247</v>
+        <v>1957.63184780339</v>
       </c>
       <c r="T20" t="n">
-        <v>1805.884914220555</v>
+        <v>1745.073378691698</v>
       </c>
       <c r="U20" t="n">
-        <v>1547.682915872934</v>
+        <v>1486.871380344077</v>
       </c>
       <c r="V20" t="n">
-        <v>1190.193500999184</v>
+        <v>1486.871380344077</v>
       </c>
       <c r="W20" t="n">
-        <v>1190.193500999184</v>
+        <v>1486.871380344077</v>
       </c>
       <c r="X20" t="n">
-        <v>1190.193500999184</v>
+        <v>1075.151381511825</v>
       </c>
       <c r="Y20" t="n">
-        <v>1190.193500999184</v>
+        <v>1075.151381511825</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>553.093582613812</v>
+        <v>459.4477522967162</v>
       </c>
       <c r="C21" t="n">
-        <v>435.5876791313168</v>
+        <v>341.941848814221</v>
       </c>
       <c r="D21" t="n">
-        <v>331.7477206466018</v>
+        <v>238.101890329506</v>
       </c>
       <c r="E21" t="n">
-        <v>227.045786919539</v>
+        <v>133.3999566024432</v>
       </c>
       <c r="F21" t="n">
         <v>133.3999566024432</v>
       </c>
       <c r="G21" t="n">
-        <v>40.36886766664494</v>
+        <v>40.36886766664496</v>
       </c>
       <c r="H21" t="n">
-        <v>40.36886766664494</v>
+        <v>40.36886766664496</v>
       </c>
       <c r="I21" t="n">
-        <v>58.86830103375435</v>
+        <v>58.86830103375438</v>
       </c>
       <c r="J21" t="n">
-        <v>133.1616396670456</v>
+        <v>133.1616396670457</v>
       </c>
       <c r="K21" t="n">
-        <v>272.8409476780163</v>
+        <v>272.8409476780164</v>
       </c>
       <c r="L21" t="n">
-        <v>468.1844277337206</v>
+        <v>468.1844277337208</v>
       </c>
       <c r="M21" t="n">
-        <v>699.2865462800108</v>
+        <v>699.2865462800112</v>
       </c>
       <c r="N21" t="n">
-        <v>938.8466550372146</v>
+        <v>938.846655037215</v>
       </c>
       <c r="O21" t="n">
-        <v>1154.386635964133</v>
+        <v>1154.386635964134</v>
       </c>
       <c r="P21" t="n">
-        <v>1324.234849733836</v>
+        <v>1324.234849733837</v>
       </c>
       <c r="Q21" t="n">
-        <v>1429.662013197</v>
+        <v>1429.662013197001</v>
       </c>
       <c r="R21" t="n">
         <v>1468.458297201826</v>
       </c>
       <c r="S21" t="n">
-        <v>1442.459247835513</v>
+        <v>1468.458297201826</v>
       </c>
       <c r="T21" t="n">
-        <v>1442.459247835513</v>
+        <v>1330.700491043467</v>
       </c>
       <c r="U21" t="n">
-        <v>1257.758333521373</v>
+        <v>1145.999576729327</v>
       </c>
       <c r="V21" t="n">
-        <v>1052.785194660639</v>
+        <v>1088.066373763606</v>
       </c>
       <c r="W21" t="n">
-        <v>856.2638174938568</v>
+        <v>891.5449965968237</v>
       </c>
       <c r="X21" t="n">
-        <v>692.7864712605196</v>
+        <v>728.0676503634866</v>
       </c>
       <c r="Y21" t="n">
-        <v>553.093582613812</v>
+        <v>588.3747617167789</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>142.2880808642832</v>
+        <v>40.36886766664496</v>
       </c>
       <c r="C22" t="n">
-        <v>142.2880808642832</v>
+        <v>40.36886766664496</v>
       </c>
       <c r="D22" t="n">
-        <v>142.2880808642832</v>
+        <v>40.36886766664496</v>
       </c>
       <c r="E22" t="n">
-        <v>142.2880808642832</v>
+        <v>40.36886766664496</v>
       </c>
       <c r="F22" t="n">
-        <v>40.36886766664494</v>
+        <v>40.36886766664496</v>
       </c>
       <c r="G22" t="n">
-        <v>40.36886766664494</v>
+        <v>40.36886766664496</v>
       </c>
       <c r="H22" t="n">
-        <v>40.36886766664494</v>
+        <v>40.36886766664496</v>
       </c>
       <c r="I22" t="n">
-        <v>40.36886766664494</v>
+        <v>40.36886766664496</v>
       </c>
       <c r="J22" t="n">
-        <v>79.34917562875836</v>
+        <v>79.3491756287584</v>
       </c>
       <c r="K22" t="n">
-        <v>156.2241921278427</v>
+        <v>156.2241921278428</v>
       </c>
       <c r="L22" t="n">
-        <v>259.4574382314491</v>
+        <v>259.4574382314493</v>
       </c>
       <c r="M22" t="n">
-        <v>368.8318928683417</v>
+        <v>368.8318928683418</v>
       </c>
       <c r="N22" t="n">
-        <v>476.8825153976119</v>
+        <v>476.882515397612</v>
       </c>
       <c r="O22" t="n">
-        <v>573.3838768543143</v>
+        <v>573.3838768543144</v>
       </c>
       <c r="P22" t="n">
-        <v>652.8598923965155</v>
+        <v>652.8598923965158</v>
       </c>
       <c r="Q22" t="n">
-        <v>698.8519520837413</v>
+        <v>698.8519520837415</v>
       </c>
       <c r="R22" t="n">
-        <v>698.8519520837413</v>
+        <v>698.8519520837415</v>
       </c>
       <c r="S22" t="n">
-        <v>698.8519520837413</v>
+        <v>698.8519520837415</v>
       </c>
       <c r="T22" t="n">
-        <v>698.8519520837413</v>
+        <v>595.3589536514035</v>
       </c>
       <c r="U22" t="n">
-        <v>698.8519520837413</v>
+        <v>315.2212714941319</v>
       </c>
       <c r="V22" t="n">
-        <v>417.1404846917702</v>
+        <v>315.2212714941319</v>
       </c>
       <c r="W22" t="n">
-        <v>142.2880808642832</v>
+        <v>40.36886766664496</v>
       </c>
       <c r="X22" t="n">
-        <v>142.2880808642832</v>
+        <v>40.36886766664496</v>
       </c>
       <c r="Y22" t="n">
-        <v>142.2880808642832</v>
+        <v>40.36886766664496</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>878.2152314719015</v>
+        <v>1287.390903253624</v>
       </c>
       <c r="C23" t="n">
-        <v>878.2152314719015</v>
+        <v>1287.390903253624</v>
       </c>
       <c r="D23" t="n">
-        <v>878.2152314719015</v>
+        <v>1287.390903253624</v>
       </c>
       <c r="E23" t="n">
-        <v>452.2382916197591</v>
+        <v>1151.612330528242</v>
       </c>
       <c r="F23" t="n">
-        <v>452.2382916197591</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="G23" t="n">
-        <v>50.20544392206813</v>
+        <v>324.4553010199516</v>
       </c>
       <c r="H23" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I23" t="n">
         <v>103.1440473010161</v>
@@ -6019,22 +6019,22 @@
         <v>2510.272196103407</v>
       </c>
       <c r="T23" t="n">
-        <v>2349.834262275476</v>
+        <v>2299.442080053587</v>
       </c>
       <c r="U23" t="n">
-        <v>2091.663850048917</v>
+        <v>2041.271667827028</v>
       </c>
       <c r="V23" t="n">
-        <v>2091.663850048917</v>
+        <v>1683.782252953277</v>
       </c>
       <c r="W23" t="n">
-        <v>1695.272500349264</v>
+        <v>1287.390903253624</v>
       </c>
       <c r="X23" t="n">
-        <v>1283.552501517011</v>
+        <v>1287.390903253624</v>
       </c>
       <c r="Y23" t="n">
-        <v>878.2152314719015</v>
+        <v>1287.390903253624</v>
       </c>
     </row>
     <row r="24">
@@ -6059,13 +6059,13 @@
         <v>184.4841739339244</v>
       </c>
       <c r="G24" t="n">
-        <v>91.66433580662166</v>
+        <v>91.66433580662161</v>
       </c>
       <c r="H24" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I24" t="n">
-        <v>75.83346633145926</v>
+        <v>75.83346633145928</v>
       </c>
       <c r="J24" t="n">
         <v>169.6881981570805</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>464.2618615192989</v>
+        <v>688.0966302268818</v>
       </c>
       <c r="C25" t="n">
-        <v>292.2892983982149</v>
+        <v>688.0966302268818</v>
       </c>
       <c r="D25" t="n">
-        <v>128.9725255249856</v>
+        <v>688.0966302268818</v>
       </c>
       <c r="E25" t="n">
-        <v>50.20544392206813</v>
+        <v>521.8884243797353</v>
       </c>
       <c r="F25" t="n">
-        <v>50.20544392206813</v>
+        <v>350.0266501542957</v>
       </c>
       <c r="G25" t="n">
-        <v>50.20544392206813</v>
+        <v>184.80416897444</v>
       </c>
       <c r="H25" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I25" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="J25" t="n">
         <v>101.4579413382349</v>
@@ -6174,25 +6174,25 @@
         <v>880.7705985416225</v>
       </c>
       <c r="S25" t="n">
-        <v>880.7705985416225</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="T25" t="n">
-        <v>880.7705985416225</v>
+        <v>688.0966302268818</v>
       </c>
       <c r="U25" t="n">
-        <v>880.7705985416225</v>
+        <v>688.0966302268818</v>
       </c>
       <c r="V25" t="n">
-        <v>880.7705985416225</v>
+        <v>688.0966302268818</v>
       </c>
       <c r="W25" t="n">
-        <v>880.7705985416225</v>
+        <v>688.0966302268818</v>
       </c>
       <c r="X25" t="n">
-        <v>880.7705985416225</v>
+        <v>688.0966302268818</v>
       </c>
       <c r="Y25" t="n">
-        <v>654.4278302313645</v>
+        <v>688.0966302268818</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1730.240143269201</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="C26" t="n">
-        <v>1303.339413282501</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="D26" t="n">
-        <v>1303.339413282501</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="E26" t="n">
-        <v>877.3624734303589</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="F26" t="n">
-        <v>452.2382916197591</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="G26" t="n">
-        <v>50.20544392206813</v>
+        <v>324.4553010199516</v>
       </c>
       <c r="H26" t="n">
         <v>50.20544392206813</v>
@@ -6232,13 +6232,13 @@
         <v>517.9745679998223</v>
       </c>
       <c r="L26" t="n">
-        <v>836.7412585230809</v>
+        <v>836.741258523081</v>
       </c>
       <c r="M26" t="n">
         <v>1196.576905080623</v>
       </c>
       <c r="N26" t="n">
-        <v>1562.984812457613</v>
+        <v>1562.984812457614</v>
       </c>
       <c r="O26" t="n">
         <v>1906.806429336001</v>
@@ -6253,25 +6253,25 @@
         <v>2510.272196103407</v>
       </c>
       <c r="S26" t="n">
-        <v>2510.272196103407</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="T26" t="n">
-        <v>2510.272196103407</v>
+        <v>2247.627653696034</v>
       </c>
       <c r="U26" t="n">
-        <v>2510.272196103407</v>
+        <v>1989.457241469475</v>
       </c>
       <c r="V26" t="n">
-        <v>2510.272196103407</v>
+        <v>1631.967826595724</v>
       </c>
       <c r="W26" t="n">
-        <v>2510.272196103407</v>
+        <v>1631.967826595724</v>
       </c>
       <c r="X26" t="n">
-        <v>2510.272196103407</v>
+        <v>1220.247827763471</v>
       </c>
       <c r="Y26" t="n">
-        <v>2150.088507560731</v>
+        <v>1146.336513009173</v>
       </c>
     </row>
     <row r="27">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>551.7029857635279</v>
+        <v>686.1909219202553</v>
       </c>
       <c r="C28" t="n">
-        <v>379.7304226424438</v>
+        <v>686.1909219202553</v>
       </c>
       <c r="D28" t="n">
-        <v>216.4136497692146</v>
+        <v>522.874149047026</v>
       </c>
       <c r="E28" t="n">
-        <v>50.20544392206813</v>
+        <v>356.6659431998796</v>
       </c>
       <c r="F28" t="n">
-        <v>50.20544392206813</v>
+        <v>184.80416897444</v>
       </c>
       <c r="G28" t="n">
-        <v>50.20544392206813</v>
+        <v>184.80416897444</v>
       </c>
       <c r="H28" t="n">
         <v>50.20544392206813</v>
@@ -6408,28 +6408,28 @@
         <v>880.7705985416225</v>
       </c>
       <c r="R28" t="n">
-        <v>880.2463511302651</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="S28" t="n">
-        <v>880.2463511302651</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="T28" t="n">
-        <v>880.2463511302651</v>
+        <v>686.1909219202553</v>
       </c>
       <c r="U28" t="n">
-        <v>880.2463511302651</v>
+        <v>686.1909219202553</v>
       </c>
       <c r="V28" t="n">
-        <v>880.2463511302651</v>
+        <v>686.1909219202553</v>
       </c>
       <c r="W28" t="n">
-        <v>880.2463511302651</v>
+        <v>686.1909219202553</v>
       </c>
       <c r="X28" t="n">
-        <v>880.2463511302651</v>
+        <v>686.1909219202553</v>
       </c>
       <c r="Y28" t="n">
-        <v>741.8689544755935</v>
+        <v>686.1909219202553</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1174.648651821651</v>
+        <v>877.3624734303589</v>
       </c>
       <c r="C29" t="n">
-        <v>747.7479218349514</v>
+        <v>877.3624734303589</v>
       </c>
       <c r="D29" t="n">
-        <v>324.4553010199517</v>
+        <v>877.3624734303589</v>
       </c>
       <c r="E29" t="n">
-        <v>324.4553010199517</v>
+        <v>877.3624734303589</v>
       </c>
       <c r="F29" t="n">
-        <v>324.4553010199517</v>
+        <v>452.2382916197591</v>
       </c>
       <c r="G29" t="n">
-        <v>324.4553010199517</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="H29" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I29" t="n">
-        <v>103.1440473010166</v>
+        <v>103.1440473010161</v>
       </c>
       <c r="J29" t="n">
-        <v>265.8602102853083</v>
+        <v>265.8602102853079</v>
       </c>
       <c r="K29" t="n">
-        <v>517.9745679998227</v>
+        <v>517.9745679998224</v>
       </c>
       <c r="L29" t="n">
-        <v>836.7412585230815</v>
+        <v>836.7412585230811</v>
       </c>
       <c r="M29" t="n">
-        <v>1196.576905080624</v>
+        <v>1196.576905080623</v>
       </c>
       <c r="N29" t="n">
         <v>1562.984812457614</v>
@@ -6481,34 +6481,34 @@
         <v>1906.806429336001</v>
       </c>
       <c r="P29" t="n">
-        <v>2194.643812107885</v>
+        <v>2194.643812107884</v>
       </c>
       <c r="Q29" t="n">
-        <v>2402.969627965677</v>
+        <v>2402.969627965676</v>
       </c>
       <c r="R29" t="n">
-        <v>2510.272196103408</v>
+        <v>2510.272196103407</v>
       </c>
       <c r="S29" t="n">
-        <v>2510.272196103408</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="T29" t="n">
-        <v>2510.272196103408</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="U29" t="n">
-        <v>2510.272196103408</v>
+        <v>2200.287357519296</v>
       </c>
       <c r="V29" t="n">
-        <v>2152.782781229657</v>
+        <v>1842.797942645545</v>
       </c>
       <c r="W29" t="n">
-        <v>1756.391431530004</v>
+        <v>1446.406592945892</v>
       </c>
       <c r="X29" t="n">
-        <v>1344.671432697751</v>
+        <v>1446.406592945892</v>
       </c>
       <c r="Y29" t="n">
-        <v>1174.648651821651</v>
+        <v>1041.069322900782</v>
       </c>
     </row>
     <row r="30">
@@ -6524,37 +6524,37 @@
         <v>486.671896462798</v>
       </c>
       <c r="D30" t="n">
-        <v>382.8319379780831</v>
+        <v>382.831937978083</v>
       </c>
       <c r="E30" t="n">
-        <v>278.1300042510204</v>
+        <v>278.1300042510202</v>
       </c>
       <c r="F30" t="n">
-        <v>184.4841739339246</v>
+        <v>184.4841739339244</v>
       </c>
       <c r="G30" t="n">
-        <v>91.66433580662147</v>
+        <v>91.66433580662161</v>
       </c>
       <c r="H30" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I30" t="n">
-        <v>75.83346633145948</v>
+        <v>75.83346633145928</v>
       </c>
       <c r="J30" t="n">
-        <v>169.6881981570807</v>
+        <v>169.6881981570805</v>
       </c>
       <c r="K30" t="n">
-        <v>342.80104282661</v>
+        <v>342.8010428266099</v>
       </c>
       <c r="L30" t="n">
-        <v>583.1000388744362</v>
+        <v>583.100038874436</v>
       </c>
       <c r="M30" t="n">
-        <v>866.6631241688303</v>
+        <v>866.66312416883</v>
       </c>
       <c r="N30" t="n">
-        <v>1160.072685361482</v>
+        <v>1160.072685361481</v>
       </c>
       <c r="O30" t="n">
         <v>1424.874394922369</v>
@@ -6563,10 +6563,10 @@
         <v>1634.259488911545</v>
       </c>
       <c r="Q30" t="n">
-        <v>1766.116009761533</v>
+        <v>1766.116009761532</v>
       </c>
       <c r="R30" t="n">
-        <v>1817.767364655854</v>
+        <v>1817.767364655853</v>
       </c>
       <c r="S30" t="n">
         <v>1759.362893661493</v>
@@ -6578,7 +6578,7 @@
         <v>1437.769560272917</v>
       </c>
       <c r="V30" t="n">
-        <v>1232.796421412184</v>
+        <v>1232.796421412183</v>
       </c>
       <c r="W30" t="n">
         <v>1036.275044245401</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="C31" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="D31" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="E31" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="F31" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="G31" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="H31" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I31" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="J31" t="n">
         <v>101.4579413382349</v>
@@ -6651,22 +6651,22 @@
         <v>880.7705985416225</v>
       </c>
       <c r="T31" t="n">
-        <v>641.8513381055109</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="U31" t="n">
-        <v>551.400616059813</v>
+        <v>600.6425766887946</v>
       </c>
       <c r="V31" t="n">
-        <v>551.400616059813</v>
+        <v>318.9311092968235</v>
       </c>
       <c r="W31" t="n">
-        <v>276.5482122323261</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="X31" t="n">
-        <v>276.5482122323261</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="Y31" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206814</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1575.757709384785</v>
+        <v>2038.609405454324</v>
       </c>
       <c r="C32" t="n">
-        <v>1575.757709384785</v>
+        <v>1726.632034097501</v>
       </c>
       <c r="D32" t="n">
-        <v>1152.465088569785</v>
+        <v>1303.339413282501</v>
       </c>
       <c r="E32" t="n">
-        <v>726.4881487176426</v>
+        <v>877.3624734303589</v>
       </c>
       <c r="F32" t="n">
-        <v>726.4881487176426</v>
+        <v>452.2382916197591</v>
       </c>
       <c r="G32" t="n">
-        <v>324.4553010199516</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="H32" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I32" t="n">
         <v>103.1440473010161</v>
@@ -6712,7 +6712,7 @@
         <v>1196.576905080623</v>
       </c>
       <c r="N32" t="n">
-        <v>1562.984812457613</v>
+        <v>1562.984812457614</v>
       </c>
       <c r="O32" t="n">
         <v>1906.806429336001</v>
@@ -6736,16 +6736,16 @@
         <v>2458.457769745854</v>
       </c>
       <c r="V32" t="n">
-        <v>2407.326072508568</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="W32" t="n">
-        <v>2407.326072508568</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="X32" t="n">
-        <v>1995.606073676315</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="Y32" t="n">
-        <v>1995.606073676315</v>
+        <v>2458.457769745854</v>
       </c>
     </row>
     <row r="33">
@@ -6761,37 +6761,37 @@
         <v>486.671896462798</v>
       </c>
       <c r="D33" t="n">
-        <v>382.831937978083</v>
+        <v>382.8319379780831</v>
       </c>
       <c r="E33" t="n">
-        <v>278.1300042510203</v>
+        <v>278.1300042510204</v>
       </c>
       <c r="F33" t="n">
-        <v>184.4841739339245</v>
+        <v>184.4841739339246</v>
       </c>
       <c r="G33" t="n">
-        <v>91.66433580662166</v>
+        <v>91.66433580662147</v>
       </c>
       <c r="H33" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I33" t="n">
-        <v>75.83346633145926</v>
+        <v>75.83346633145948</v>
       </c>
       <c r="J33" t="n">
-        <v>169.6881981570805</v>
+        <v>169.6881981570807</v>
       </c>
       <c r="K33" t="n">
-        <v>342.8010428266099</v>
+        <v>342.80104282661</v>
       </c>
       <c r="L33" t="n">
-        <v>583.100038874436</v>
+        <v>583.1000388744362</v>
       </c>
       <c r="M33" t="n">
-        <v>866.66312416883</v>
+        <v>866.6631241688303</v>
       </c>
       <c r="N33" t="n">
-        <v>1160.072685361481</v>
+        <v>1160.072685361482</v>
       </c>
       <c r="O33" t="n">
         <v>1424.874394922369</v>
@@ -6800,10 +6800,10 @@
         <v>1634.259488911545</v>
       </c>
       <c r="Q33" t="n">
-        <v>1766.116009761532</v>
+        <v>1766.116009761533</v>
       </c>
       <c r="R33" t="n">
-        <v>1817.767364655853</v>
+        <v>1817.767364655854</v>
       </c>
       <c r="S33" t="n">
         <v>1759.362893661493</v>
@@ -6815,7 +6815,7 @@
         <v>1437.769560272917</v>
       </c>
       <c r="V33" t="n">
-        <v>1232.796421412183</v>
+        <v>1232.796421412184</v>
       </c>
       <c r="W33" t="n">
         <v>1036.275044245401</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2009.232020204229</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="C34" t="n">
-        <v>2009.232020204229</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="D34" t="n">
-        <v>1845.915247330999</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="E34" t="n">
-        <v>1679.707041483853</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="F34" t="n">
-        <v>1679.707041483853</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="G34" t="n">
-        <v>1679.707041483853</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="H34" t="n">
-        <v>1679.707041483853</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I34" t="n">
-        <v>1679.707041483853</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="J34" t="n">
-        <v>1730.95953890002</v>
+        <v>101.4579413382349</v>
       </c>
       <c r="K34" t="n">
-        <v>1828.00153253975</v>
+        <v>198.4999349779649</v>
       </c>
       <c r="L34" t="n">
-        <v>1957.041566136167</v>
+        <v>327.539968574382</v>
       </c>
       <c r="M34" t="n">
-        <v>2093.625659805622</v>
+        <v>464.1240622438374</v>
       </c>
       <c r="N34" t="n">
-        <v>2228.238936967794</v>
+        <v>598.7373394060097</v>
       </c>
       <c r="O34" t="n">
-        <v>2349.275209268218</v>
+        <v>719.7736117064335</v>
       </c>
       <c r="P34" t="n">
-        <v>2449.745079574046</v>
+        <v>820.2434820122616</v>
       </c>
       <c r="Q34" t="n">
-        <v>2510.272196103407</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="R34" t="n">
-        <v>2510.272196103407</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="S34" t="n">
-        <v>2510.272196103407</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="T34" t="n">
-        <v>2510.272196103407</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="U34" t="n">
-        <v>2510.272196103407</v>
+        <v>600.6425766887946</v>
       </c>
       <c r="V34" t="n">
-        <v>2425.740757226552</v>
+        <v>318.9311092968235</v>
       </c>
       <c r="W34" t="n">
-        <v>2425.740757226552</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="X34" t="n">
-        <v>2425.740757226552</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="Y34" t="n">
-        <v>2199.397988916294</v>
+        <v>50.20544392206814</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1326.37573457591</v>
+        <v>963.3817243504038</v>
       </c>
       <c r="C35" t="n">
-        <v>899.4750045892104</v>
+        <v>963.3817243504038</v>
       </c>
       <c r="D35" t="n">
-        <v>476.1823837742106</v>
+        <v>540.0891035354041</v>
       </c>
       <c r="E35" t="n">
-        <v>50.20544392206816</v>
+        <v>540.0891035354041</v>
       </c>
       <c r="F35" t="n">
-        <v>50.20544392206816</v>
+        <v>540.0891035354041</v>
       </c>
       <c r="G35" t="n">
-        <v>50.20544392206816</v>
+        <v>138.0562558377131</v>
       </c>
       <c r="H35" t="n">
         <v>50.20544392206816</v>
@@ -6967,22 +6967,22 @@
         <v>2458.457769745855</v>
       </c>
       <c r="T35" t="n">
-        <v>2247.627653696034</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="U35" t="n">
-        <v>2247.627653696034</v>
+        <v>2200.287357519296</v>
       </c>
       <c r="V35" t="n">
-        <v>2151.56136891255</v>
+        <v>2200.287357519296</v>
       </c>
       <c r="W35" t="n">
-        <v>2151.56136891255</v>
+        <v>2200.287357519296</v>
       </c>
       <c r="X35" t="n">
-        <v>2151.56136891255</v>
+        <v>1788.567358687043</v>
       </c>
       <c r="Y35" t="n">
-        <v>1746.22409886744</v>
+        <v>1383.230088641934</v>
       </c>
     </row>
     <row r="36">
@@ -6998,16 +6998,16 @@
         <v>486.671896462798</v>
       </c>
       <c r="D36" t="n">
-        <v>382.8319379780831</v>
+        <v>382.831937978083</v>
       </c>
       <c r="E36" t="n">
-        <v>278.1300042510203</v>
+        <v>278.1300042510202</v>
       </c>
       <c r="F36" t="n">
-        <v>184.4841739339245</v>
+        <v>184.4841739339244</v>
       </c>
       <c r="G36" t="n">
-        <v>91.66433580662168</v>
+        <v>91.66433580662161</v>
       </c>
       <c r="H36" t="n">
         <v>50.20544392206816</v>
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>134.0407586100988</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="C37" t="n">
-        <v>134.0407586100988</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="D37" t="n">
         <v>50.20544392206816</v>
@@ -7128,19 +7128,19 @@
         <v>880.7705985416225</v>
       </c>
       <c r="U37" t="n">
-        <v>880.7705985416225</v>
+        <v>600.6425766887946</v>
       </c>
       <c r="V37" t="n">
-        <v>599.0591311496514</v>
+        <v>318.9311092968235</v>
       </c>
       <c r="W37" t="n">
-        <v>324.2067273221645</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="X37" t="n">
-        <v>324.2067273221645</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="Y37" t="n">
-        <v>324.2067273221645</v>
+        <v>50.20544392206816</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>901.3065655848104</v>
+        <v>1569.608877177945</v>
       </c>
       <c r="C38" t="n">
-        <v>901.3065655848104</v>
+        <v>1142.708147191246</v>
       </c>
       <c r="D38" t="n">
-        <v>901.3065655848104</v>
+        <v>1142.708147191246</v>
       </c>
       <c r="E38" t="n">
-        <v>475.329625732668</v>
+        <v>716.7312073391032</v>
       </c>
       <c r="F38" t="n">
-        <v>50.20544392206816</v>
+        <v>291.6070255285034</v>
       </c>
       <c r="G38" t="n">
         <v>50.20544392206816</v>
@@ -7171,16 +7171,16 @@
         <v>50.20544392206816</v>
       </c>
       <c r="I38" t="n">
-        <v>103.1440473010166</v>
+        <v>103.1440473010161</v>
       </c>
       <c r="J38" t="n">
-        <v>265.8602102853083</v>
+        <v>265.8602102853081</v>
       </c>
       <c r="K38" t="n">
-        <v>517.9745679998227</v>
+        <v>517.9745679998226</v>
       </c>
       <c r="L38" t="n">
-        <v>836.7412585230815</v>
+        <v>836.7412585230813</v>
       </c>
       <c r="M38" t="n">
         <v>1196.576905080624</v>
@@ -7201,25 +7201,25 @@
         <v>2510.272196103408</v>
       </c>
       <c r="S38" t="n">
-        <v>2510.272196103408</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="T38" t="n">
-        <v>2510.272196103408</v>
+        <v>2247.627653696034</v>
       </c>
       <c r="U38" t="n">
-        <v>2510.272196103408</v>
+        <v>1989.457241469476</v>
       </c>
       <c r="V38" t="n">
-        <v>2510.272196103408</v>
+        <v>1989.457241469476</v>
       </c>
       <c r="W38" t="n">
-        <v>2113.880846403755</v>
+        <v>1989.457241469476</v>
       </c>
       <c r="X38" t="n">
-        <v>1702.160847571502</v>
+        <v>1989.457241469476</v>
       </c>
       <c r="Y38" t="n">
-        <v>1296.823577526392</v>
+        <v>1989.457241469476</v>
       </c>
     </row>
     <row r="39">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>693.8609875008193</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="C40" t="n">
-        <v>521.8884243797353</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="D40" t="n">
-        <v>521.8884243797353</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="E40" t="n">
-        <v>521.8884243797353</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0266501542957</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="G40" t="n">
-        <v>184.80416897444</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="H40" t="n">
         <v>50.20544392206816</v>
@@ -7365,19 +7365,19 @@
         <v>880.7705985416225</v>
       </c>
       <c r="U40" t="n">
-        <v>880.7705985416225</v>
+        <v>600.6425766887946</v>
       </c>
       <c r="V40" t="n">
-        <v>880.7705985416225</v>
+        <v>600.6425766887946</v>
       </c>
       <c r="W40" t="n">
-        <v>880.7705985416225</v>
+        <v>325.7901728613077</v>
       </c>
       <c r="X40" t="n">
-        <v>880.7705985416225</v>
+        <v>83.22627630711278</v>
       </c>
       <c r="Y40" t="n">
-        <v>880.7705985416225</v>
+        <v>50.20544392206816</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1328.20729557151</v>
+        <v>1695.631084826994</v>
       </c>
       <c r="C41" t="n">
-        <v>901.3065655848104</v>
+        <v>1303.339413282501</v>
       </c>
       <c r="D41" t="n">
-        <v>901.3065655848104</v>
+        <v>1303.339413282501</v>
       </c>
       <c r="E41" t="n">
-        <v>475.329625732668</v>
+        <v>877.3624734303589</v>
       </c>
       <c r="F41" t="n">
-        <v>50.20544392206816</v>
+        <v>452.2382916197591</v>
       </c>
       <c r="G41" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="H41" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="I41" t="n">
         <v>103.1440473010161</v>
@@ -7417,46 +7417,46 @@
         <v>517.9745679998223</v>
       </c>
       <c r="L41" t="n">
-        <v>836.741258523081</v>
+        <v>836.7412585230809</v>
       </c>
       <c r="M41" t="n">
         <v>1196.576905080623</v>
       </c>
       <c r="N41" t="n">
-        <v>1562.984812457614</v>
+        <v>1562.984812457613</v>
       </c>
       <c r="O41" t="n">
-        <v>1906.806429336002</v>
+        <v>1906.806429336001</v>
       </c>
       <c r="P41" t="n">
-        <v>2194.643812107885</v>
+        <v>2194.643812107884</v>
       </c>
       <c r="Q41" t="n">
-        <v>2402.969627965677</v>
+        <v>2402.969627965676</v>
       </c>
       <c r="R41" t="n">
-        <v>2510.272196103408</v>
+        <v>2510.272196103407</v>
       </c>
       <c r="S41" t="n">
-        <v>2458.457769745855</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="T41" t="n">
-        <v>2458.457769745855</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="U41" t="n">
-        <v>2200.287357519296</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="V41" t="n">
-        <v>2129.935915316273</v>
+        <v>2100.968354872103</v>
       </c>
       <c r="W41" t="n">
-        <v>1733.54456561662</v>
+        <v>2100.968354872103</v>
       </c>
       <c r="X41" t="n">
-        <v>1733.54456561662</v>
+        <v>2100.968354872103</v>
       </c>
       <c r="Y41" t="n">
-        <v>1328.20729557151</v>
+        <v>1695.631084826994</v>
       </c>
     </row>
     <row r="42">
@@ -7472,22 +7472,22 @@
         <v>486.671896462798</v>
       </c>
       <c r="D42" t="n">
-        <v>382.831937978083</v>
+        <v>382.8319379780831</v>
       </c>
       <c r="E42" t="n">
-        <v>278.1300042510202</v>
+        <v>278.1300042510203</v>
       </c>
       <c r="F42" t="n">
-        <v>184.4841739339244</v>
+        <v>184.4841739339245</v>
       </c>
       <c r="G42" t="n">
-        <v>91.66433580662161</v>
+        <v>91.66433580662166</v>
       </c>
       <c r="H42" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="I42" t="n">
-        <v>75.83346633145928</v>
+        <v>75.83346633145926</v>
       </c>
       <c r="J42" t="n">
         <v>169.6881981570805</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>597.2971832741649</v>
+        <v>222.1780070431521</v>
       </c>
       <c r="C43" t="n">
-        <v>425.3246201530809</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="D43" t="n">
-        <v>425.3246201530809</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="E43" t="n">
-        <v>425.3246201530809</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="F43" t="n">
-        <v>253.4628459276414</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="G43" t="n">
-        <v>253.4628459276414</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="H43" t="n">
-        <v>118.8641208752695</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="I43" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="J43" t="n">
         <v>101.4579413382349</v>
@@ -7602,19 +7602,19 @@
         <v>880.7705985416225</v>
       </c>
       <c r="U43" t="n">
-        <v>787.4631519862305</v>
+        <v>600.6425766887946</v>
       </c>
       <c r="V43" t="n">
-        <v>787.4631519862305</v>
+        <v>464.741903597347</v>
       </c>
       <c r="W43" t="n">
-        <v>787.4631519862305</v>
+        <v>464.741903597347</v>
       </c>
       <c r="X43" t="n">
-        <v>787.4631519862305</v>
+        <v>222.1780070431521</v>
       </c>
       <c r="Y43" t="n">
-        <v>787.4631519862305</v>
+        <v>222.1780070431521</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1328.20729557151</v>
+        <v>1832.253419585319</v>
       </c>
       <c r="C44" t="n">
-        <v>901.3065655848104</v>
+        <v>1405.352689598619</v>
       </c>
       <c r="D44" t="n">
-        <v>901.3065655848104</v>
+        <v>1303.339413282501</v>
       </c>
       <c r="E44" t="n">
-        <v>475.329625732668</v>
+        <v>877.3624734303589</v>
       </c>
       <c r="F44" t="n">
-        <v>50.20544392206816</v>
+        <v>452.2382916197591</v>
       </c>
       <c r="G44" t="n">
         <v>50.20544392206816</v>
@@ -7645,25 +7645,25 @@
         <v>50.20544392206816</v>
       </c>
       <c r="I44" t="n">
-        <v>103.1440473010165</v>
+        <v>103.1440473010161</v>
       </c>
       <c r="J44" t="n">
-        <v>265.8602102853083</v>
+        <v>265.8602102853079</v>
       </c>
       <c r="K44" t="n">
-        <v>517.9745679998227</v>
+        <v>517.9745679998223</v>
       </c>
       <c r="L44" t="n">
-        <v>836.7412585230813</v>
+        <v>836.741258523081</v>
       </c>
       <c r="M44" t="n">
-        <v>1196.576905080624</v>
+        <v>1196.576905080623</v>
       </c>
       <c r="N44" t="n">
         <v>1562.984812457614</v>
       </c>
       <c r="O44" t="n">
-        <v>1906.806429336001</v>
+        <v>1906.806429336002</v>
       </c>
       <c r="P44" t="n">
         <v>2194.643812107885</v>
@@ -7684,16 +7684,16 @@
         <v>2252.101783876849</v>
       </c>
       <c r="V44" t="n">
-        <v>1894.612369003098</v>
+        <v>2252.101783876849</v>
       </c>
       <c r="W44" t="n">
-        <v>1894.612369003098</v>
+        <v>2252.101783876849</v>
       </c>
       <c r="X44" t="n">
-        <v>1482.892370170846</v>
+        <v>2252.101783876849</v>
       </c>
       <c r="Y44" t="n">
-        <v>1328.20729557151</v>
+        <v>2252.101783876849</v>
       </c>
     </row>
     <row r="45">
@@ -7709,16 +7709,16 @@
         <v>486.671896462798</v>
       </c>
       <c r="D45" t="n">
-        <v>382.8319379780831</v>
+        <v>382.831937978083</v>
       </c>
       <c r="E45" t="n">
-        <v>278.1300042510203</v>
+        <v>278.1300042510202</v>
       </c>
       <c r="F45" t="n">
-        <v>184.4841739339245</v>
+        <v>184.4841739339244</v>
       </c>
       <c r="G45" t="n">
-        <v>91.66433580662168</v>
+        <v>91.66433580662161</v>
       </c>
       <c r="H45" t="n">
         <v>50.20544392206816</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>213.5222167952975</v>
+        <v>216.4136497692146</v>
       </c>
       <c r="C46" t="n">
-        <v>213.5222167952975</v>
+        <v>216.4136497692146</v>
       </c>
       <c r="D46" t="n">
-        <v>50.20544392206816</v>
+        <v>216.4136497692146</v>
       </c>
       <c r="E46" t="n">
         <v>50.20544392206816</v>
@@ -7839,19 +7839,19 @@
         <v>880.7705985416225</v>
       </c>
       <c r="U46" t="n">
-        <v>600.6425766887946</v>
+        <v>772.9775209886727</v>
       </c>
       <c r="V46" t="n">
-        <v>318.9311092968235</v>
+        <v>491.2660535967016</v>
       </c>
       <c r="W46" t="n">
-        <v>213.5222167952975</v>
+        <v>216.4136497692146</v>
       </c>
       <c r="X46" t="n">
-        <v>213.5222167952975</v>
+        <v>216.4136497692146</v>
       </c>
       <c r="Y46" t="n">
-        <v>213.5222167952975</v>
+        <v>216.4136497692146</v>
       </c>
     </row>
   </sheetData>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>399.6031956049344</v>
+        <v>397.4315733783146</v>
       </c>
       <c r="C2" t="n">
         <v>422.6317226868329</v>
@@ -22597,25 +22597,25 @@
         <v>15.49488714450009</v>
       </c>
       <c r="S2" t="n">
-        <v>96.23601616822083</v>
+        <v>80.18933112454049</v>
       </c>
       <c r="T2" t="n">
-        <v>199.1364724422805</v>
+        <v>217.3547797125806</v>
       </c>
       <c r="U2" t="n">
-        <v>237.5281706080333</v>
+        <v>255.7464778783334</v>
       </c>
       <c r="V2" t="n">
-        <v>335.6962134547129</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>389.3844915736301</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>383.0655900743585</v>
       </c>
     </row>
     <row r="3">
@@ -22625,22 +22625,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>111.5910542821817</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C3" t="n">
         <v>116.3308444476703</v>
       </c>
       <c r="D3" t="n">
-        <v>102.8015588998678</v>
+        <v>84.5832516295677</v>
       </c>
       <c r="E3" t="n">
         <v>103.6549143897921</v>
       </c>
       <c r="F3" t="n">
-        <v>92.70937201392488</v>
+        <v>74.49106474362476</v>
       </c>
       <c r="G3" t="n">
-        <v>92.94681813455406</v>
+        <v>74.72851086425395</v>
       </c>
       <c r="H3" t="n">
         <v>51.2351047706663</v>
@@ -22670,7 +22670,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.504190801070976</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>13.34053384443211</v>
@@ -22679,7 +22679,7 @@
         <v>77.41990205371728</v>
       </c>
       <c r="T3" t="n">
-        <v>139.7903633642173</v>
+        <v>125.2478691216079</v>
       </c>
       <c r="U3" t="n">
         <v>182.9095657031111</v>
@@ -22688,13 +22688,13 @@
         <v>202.9234074721264</v>
       </c>
       <c r="W3" t="n">
-        <v>176.3378561248148</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X3" t="n">
-        <v>143.6242655007036</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y3" t="n">
-        <v>120.0776524899404</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="4">
@@ -22789,10 +22789,10 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>395.5499816478053</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>398.2074574945767</v>
       </c>
       <c r="F5" t="n">
         <v>420.8729399924937</v>
@@ -22828,19 +22828,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1585647136001427</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>14.11143217127993</v>
       </c>
       <c r="S5" t="n">
-        <v>72.22443497918414</v>
+        <v>95.73414793822852</v>
       </c>
       <c r="T5" t="n">
-        <v>193.7486573985481</v>
+        <v>217.2583703575925</v>
       </c>
       <c r="U5" t="n">
-        <v>235.0373607968914</v>
+        <v>255.7447159712177</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
@@ -22852,7 +22852,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>380.7351068839324</v>
       </c>
     </row>
     <row r="6">
@@ -22871,19 +22871,19 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E6" t="n">
-        <v>80.14520143074776</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F6" t="n">
         <v>92.70937201392488</v>
       </c>
       <c r="G6" t="n">
-        <v>75.13902122519775</v>
+        <v>92.93503434185737</v>
       </c>
       <c r="H6" t="n">
         <v>51.12129814120099</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>5.713699842384747</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22919,10 +22919,10 @@
         <v>139.7428664103214</v>
       </c>
       <c r="U6" t="n">
-        <v>182.9087904535916</v>
+        <v>159.3990774945472</v>
       </c>
       <c r="V6" t="n">
-        <v>202.9234074721264</v>
+        <v>179.413694513082</v>
       </c>
       <c r="W6" t="n">
         <v>194.556163395115</v>
@@ -22953,7 +22953,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>166.9593234549893</v>
       </c>
       <c r="G7" t="n">
         <v>164.4450033473029</v>
@@ -23010,7 +23010,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8955075989595</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -23023,7 +23023,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>398.7692280099177</v>
+        <v>398.7692280099178</v>
       </c>
       <c r="D8" t="n">
         <v>419.0596946068497</v>
@@ -23032,19 +23032,19 @@
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>397.0104453155786</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>399.961149212524</v>
+        <v>393.9900343389692</v>
       </c>
       <c r="H8" t="n">
-        <v>267.6012707536137</v>
+        <v>291.4637654305288</v>
       </c>
       <c r="I8" t="n">
         <v>21.65122101284321</v>
       </c>
       <c r="J8" t="n">
-        <v>1.027774177190928</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23071,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>95.70068803234791</v>
+        <v>71.83819335543278</v>
       </c>
       <c r="T8" t="n">
         <v>217.2519426784705</v>
@@ -23080,10 +23080,10 @@
         <v>255.7445985036381</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>330.0520260480979</v>
       </c>
       <c r="W8" t="n">
-        <v>385.4285471519108</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
@@ -23111,19 +23111,19 @@
         <v>103.6549143897921</v>
       </c>
       <c r="F9" t="n">
-        <v>68.84687733700973</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G9" t="n">
-        <v>69.07175403124202</v>
+        <v>92.93424870815717</v>
       </c>
       <c r="H9" t="n">
-        <v>27.25121589670749</v>
+        <v>51.11371057362263</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.00995232957614</v>
       </c>
       <c r="J9" t="n">
-        <v>3.700923269594416</v>
+        <v>3.700923269594419</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>12.56012682656194</v>
+        <v>12.56012682656195</v>
       </c>
       <c r="S9" t="n">
         <v>77.18643047130132</v>
       </c>
       <c r="T9" t="n">
-        <v>139.7396997551877</v>
+        <v>115.8772050782726</v>
       </c>
       <c r="U9" t="n">
-        <v>182.908738767164</v>
+        <v>159.0462440902488</v>
       </c>
       <c r="V9" t="n">
         <v>202.9234074721264</v>
@@ -23165,10 +23165,10 @@
         <v>194.556163395115</v>
       </c>
       <c r="X9" t="n">
-        <v>161.8425727710037</v>
+        <v>137.9800780940886</v>
       </c>
       <c r="Y9" t="n">
-        <v>127.2878267783898</v>
+        <v>117.2778744488137</v>
       </c>
     </row>
     <row r="10">
@@ -23190,7 +23190,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>166.6633718871109</v>
       </c>
       <c r="G10" t="n">
         <v>164.4443446983998</v>
@@ -23205,7 +23205,7 @@
         <v>10.02784554495552</v>
       </c>
       <c r="K10" t="n">
-        <v>3.530955673011043</v>
+        <v>3.53095567301105</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23217,10 +23217,10 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1.289551455639586</v>
+        <v>1.289551455639593</v>
       </c>
       <c r="P10" t="n">
-        <v>4.232292945534102</v>
+        <v>4.232292945534109</v>
       </c>
       <c r="Q10" t="n">
         <v>12.05447673506464</v>
@@ -23241,7 +23241,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>268.6240951931378</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -23260,22 +23260,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>254.1734428189878</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>253.258890585776</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>229.6169455921248</v>
       </c>
       <c r="G11" t="n">
-        <v>208.1435512582262</v>
+        <v>399.3995456585952</v>
       </c>
       <c r="H11" t="n">
-        <v>94.45624863348573</v>
+        <v>94.4562486334857</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>255.6996702193238</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>162.658526324644</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -23336,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>127.6377393258621</v>
+        <v>26.21919646833364</v>
       </c>
       <c r="C12" t="n">
         <v>116.3308444476703</v>
       </c>
       <c r="D12" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>103.6549143897921</v>
@@ -23351,7 +23351,7 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G12" t="n">
-        <v>47.98859663367237</v>
+        <v>92.63376431607153</v>
       </c>
       <c r="H12" t="n">
         <v>48.21166394479565</v>
@@ -23390,19 +23390,19 @@
         <v>71.60506467971084</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>138.5285367888426</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>182.8889700571583</v>
       </c>
       <c r="V12" t="n">
-        <v>11.66741307175744</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W12" t="n">
-        <v>194.556163395115</v>
+        <v>3.300168994745974</v>
       </c>
       <c r="X12" t="n">
-        <v>161.8425727710037</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>138.2959597602405</v>
@@ -23436,7 +23436,7 @@
         <v>138.7844152484321</v>
       </c>
       <c r="I13" t="n">
-        <v>58.87027619575082</v>
+        <v>86.68250837722755</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>28.49413443704394</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>161.4284329972273</v>
       </c>
       <c r="T13" t="n">
-        <v>239.1884404287796</v>
+        <v>47.93244602841062</v>
       </c>
       <c r="U13" t="n">
         <v>277.3606783057509</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>252.4155475026724</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>224.3938862482458</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -23509,7 +23509,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>399.3995456585952</v>
+        <v>208.1435512582262</v>
       </c>
       <c r="H14" t="n">
         <v>285.7122430338547</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.90314704719353</v>
       </c>
       <c r="T14" t="n">
         <v>214.7935231211468</v>
       </c>
       <c r="U14" t="n">
-        <v>255.6996702193238</v>
+        <v>87.2413903514788</v>
       </c>
       <c r="V14" t="n">
-        <v>162.658526324644</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>201.1714418022876</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>216.3468044435612</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>315.728764524007</v>
+        <v>210.0279029442896</v>
       </c>
     </row>
     <row r="15">
@@ -23576,16 +23576,16 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C15" t="n">
-        <v>116.3308444476703</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>102.8015588998678</v>
       </c>
       <c r="E15" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>92.63376431607153</v>
@@ -23633,10 +23633,10 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>19.74970300088478</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W15" t="n">
-        <v>3.300168994745974</v>
+        <v>132.8215953748917</v>
       </c>
       <c r="X15" t="n">
         <v>161.8425727710037</v>
@@ -23664,10 +23664,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>116.6007855454373</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.1924286780001</v>
       </c>
       <c r="H16" t="n">
         <v>138.7844152484321</v>
@@ -23709,10 +23709,10 @@
         <v>239.1884404287796</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3606783057509</v>
+        <v>250.8818730903719</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>87.63835831768242</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -23734,7 +23734,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>410.8500299184171</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
@@ -23743,13 +23743,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>136.4613067141648</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>398.4033974688585</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>275.5104403857142</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23810,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>127.6377393258621</v>
+        <v>42.76797763619493</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G18" t="n">
-        <v>92.10077804644027</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>43.06413865651469</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>61.70507848721772</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23873,7 +23873,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>123.309608321419</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>55.39866575872409</v>
+        <v>113.8176201937106</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -23904,13 +23904,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>163.7455908937104</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>134.8116211299295</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>73.24487755513482</v>
+        <v>73.24487755513481</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>8.402682790710621</v>
+        <v>8.4026827907106</v>
       </c>
       <c r="S19" t="n">
         <v>153.6412690655611</v>
       </c>
       <c r="T19" t="n">
-        <v>237.2792244413602</v>
+        <v>237.2792244413601</v>
       </c>
       <c r="U19" t="n">
         <v>277.3363053356988</v>
@@ -23955,7 +23955,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
@@ -23977,16 +23977,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>233.8053023880017</v>
       </c>
       <c r="F20" t="n">
-        <v>378.1775613014741</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.4033974688585</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>275.5104403857142</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.20342017356939</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24028,13 +24028,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>127.6377393258621</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24059,13 +24059,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>43.0641386565147</v>
+        <v>43.06413865651469</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24098,16 +24098,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>35.96601961456821</v>
+        <v>61.70507848721773</v>
       </c>
       <c r="T21" t="n">
-        <v>136.3802280967762</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>145.5695365360631</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24138,7 +24138,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>69.24313541752332</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>163.7455908937104</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>8.402682790710621</v>
+        <v>8.402682790710607</v>
       </c>
       <c r="S22" t="n">
         <v>153.6412690655611</v>
       </c>
       <c r="T22" t="n">
-        <v>237.2792244413602</v>
+        <v>134.8211559933455</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3363053356988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24214,16 +24214,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>287.2963834554931</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>271.5073585269046</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>51.29628209397736</v>
       </c>
       <c r="T23" t="n">
-        <v>49.8882603996706</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>86.56671300178668</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.5702563680571</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>133.2527378018481</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>67.97209018366931</v>
@@ -24414,10 +24414,10 @@
         <v>0.5190049372437429</v>
       </c>
       <c r="S25" t="n">
-        <v>150.5856664684936</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>236.5300678317505</v>
+        <v>196.3685056686508</v>
       </c>
       <c r="U25" t="n">
         <v>277.3267416342995</v>
@@ -24432,7 +24432,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24445,22 +24445,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>271.5073585269046</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>51.29628209397736</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>44.70204568740979</v>
+        <v>328.1116957379028</v>
       </c>
     </row>
     <row r="27">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>163.5702563680571</v>
       </c>
       <c r="H28" t="n">
-        <v>133.2527378018481</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>67.97209018366931</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>0.5190049372437429</v>
       </c>
       <c r="S28" t="n">
-        <v>150.5856664684936</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>236.5300678317505</v>
+        <v>194.4818544450906</v>
       </c>
       <c r="U28" t="n">
         <v>277.3267416342995</v>
@@ -24669,7 +24669,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>87.08571793903045</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>253.5800996728954</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>398.012519220714</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>51.29628209397736</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>208.7218148893222</v>
       </c>
       <c r="U29" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>232.9613442773195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24891,22 +24891,22 @@
         <v>150.5856664684936</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>236.5300678317505</v>
       </c>
       <c r="U31" t="n">
-        <v>187.7805268090586</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>6.065471068204261</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>113.774125043578</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24928,13 +24928,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24976,13 +24976,13 @@
         <v>255.5887081042933</v>
       </c>
       <c r="V32" t="n">
-        <v>303.2941404600998</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
@@ -25131,19 +25131,19 @@
         <v>236.5300678317505</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3267416342995</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>195.2082282299656</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>6.065471068204261</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -25156,22 +25156,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>398.012519220714</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>271.5073585269046</v>
+        <v>184.5350547304161</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,19 +25207,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U35" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>258.8088987893632</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>78.68664360334665</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
@@ -25368,13 +25368,13 @@
         <v>236.5300678317505</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3267416342995</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>6.065471068204261</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>24.08803882644855</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>398.012519220714</v>
+        <v>159.0249534303431</v>
       </c>
       <c r="H38" t="n">
         <v>271.5073585269046</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>51.29628209397736</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3.223794094549874</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
@@ -25560,13 +25560,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I40" t="n">
         <v>67.97209018366931</v>
@@ -25605,19 +25605,19 @@
         <v>236.5300678317505</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3267416342995</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>191.3887165659612</v>
       </c>
     </row>
     <row r="41">
@@ -25630,7 +25630,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>34.26296785778567</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>398.012519220714</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>271.5073585269046</v>
@@ -25684,13 +25684,13 @@
         <v>208.7218148893222</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V41" t="n">
-        <v>284.2665929440203</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>163.5702563680571</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>67.97209018366931</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,16 +25842,16 @@
         <v>236.5300678317505</v>
       </c>
       <c r="U43" t="n">
-        <v>184.9523695444615</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>144.3526863575182</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>318.0665510538934</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>398.012519220714</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>271.5073585269046</v>
@@ -25924,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>248.1456734913165</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26028,10 +26028,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
@@ -26079,13 +26079,13 @@
         <v>236.5300678317505</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>170.6115948568793</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>167.7490762127013</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>58159.98165844422</v>
+        <v>58159.98165844421</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>62564.33347904026</v>
+        <v>62564.33347904024</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>62852.58466827731</v>
+        <v>62852.5846682773</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>168012.8014241288</v>
+        <v>168012.8014241289</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>168012.8014241289</v>
+        <v>168012.8014241288</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>353616.5859684295</v>
+        <v>353616.5859684298</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>353616.5859684296</v>
+        <v>353616.5859684297</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>426445.591631571</v>
+        <v>426445.5916315711</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>426445.5916315709</v>
+        <v>426445.5916315712</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>426445.5916315711</v>
+        <v>426445.5916315712</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>426445.5916315711</v>
+        <v>426445.591631571</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>426445.5916315711</v>
+        <v>426445.5916315712</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23263.99266337769</v>
+        <v>23263.9926633777</v>
       </c>
       <c r="C2" t="n">
         <v>25025.73339161612</v>
       </c>
       <c r="D2" t="n">
-        <v>25141.03386731095</v>
+        <v>25141.03386731093</v>
       </c>
       <c r="E2" t="n">
-        <v>67205.12056965157</v>
+        <v>67205.12056965154</v>
       </c>
       <c r="F2" t="n">
         <v>67205.12056965155</v>
@@ -26331,7 +26331,7 @@
         <v>141446.6343873719</v>
       </c>
       <c r="H2" t="n">
-        <v>141446.6343873718</v>
+        <v>141446.6343873719</v>
       </c>
       <c r="I2" t="n">
         <v>170578.2366526284</v>
@@ -26349,10 +26349,10 @@
         <v>170578.2366526285</v>
       </c>
       <c r="N2" t="n">
-        <v>170578.2366526284</v>
+        <v>170578.2366526285</v>
       </c>
       <c r="O2" t="n">
-        <v>170578.2366526284</v>
+        <v>170578.2366526285</v>
       </c>
       <c r="P2" t="n">
         <v>170578.2366526285</v>
@@ -26371,34 +26371,34 @@
         <v>6698.167324106118</v>
       </c>
       <c r="D3" t="n">
-        <v>422.390445424325</v>
+        <v>422.3904454242963</v>
       </c>
       <c r="E3" t="n">
-        <v>162214.5188946642</v>
+        <v>162214.5188946643</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>278540.816018884</v>
+        <v>278540.8160188843</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>105887.413520339</v>
+        <v>105887.4135203389</v>
       </c>
       <c r="J3" t="n">
-        <v>4766.710787430404</v>
+        <v>4766.710787430374</v>
       </c>
       <c r="K3" t="n">
-        <v>1361.838499300791</v>
+        <v>1361.838499300762</v>
       </c>
       <c r="L3" t="n">
-        <v>89.28587775757333</v>
+        <v>89.28587775762728</v>
       </c>
       <c r="M3" t="n">
-        <v>41715.12970508364</v>
+        <v>41715.12970508362</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>17.15222569169689</v>
       </c>
       <c r="D4" t="n">
-        <v>17.41872404354271</v>
+        <v>17.41872404354269</v>
       </c>
       <c r="E4" t="n">
         <v>134.583956678369</v>
@@ -26432,34 +26432,34 @@
         <v>134.583956678369</v>
       </c>
       <c r="G4" t="n">
-        <v>354.2565413413391</v>
+        <v>354.2565413413394</v>
       </c>
       <c r="H4" t="n">
-        <v>354.2565413413391</v>
+        <v>354.2565413413393</v>
       </c>
       <c r="I4" t="n">
         <v>440.4537918539642</v>
       </c>
       <c r="J4" t="n">
-        <v>440.4537918539642</v>
+        <v>440.4537918539641</v>
       </c>
       <c r="K4" t="n">
         <v>440.4537918539642</v>
       </c>
       <c r="L4" t="n">
-        <v>440.4537918539642</v>
+        <v>440.4537918539641</v>
       </c>
       <c r="M4" t="n">
         <v>440.4537918539642</v>
       </c>
       <c r="N4" t="n">
-        <v>440.4537918539642</v>
+        <v>440.4537918539641</v>
       </c>
       <c r="O4" t="n">
         <v>440.4537918539642</v>
       </c>
       <c r="P4" t="n">
-        <v>440.4537918539642</v>
+        <v>440.4537918539641</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>36863.06036917747</v>
       </c>
       <c r="D5" t="n">
-        <v>36892.4719640909</v>
+        <v>36892.47196409089</v>
       </c>
       <c r="E5" t="n">
         <v>16487.83241934473</v>
@@ -26484,22 +26484,22 @@
         <v>16487.83241934473</v>
       </c>
       <c r="G5" t="n">
-        <v>40941.66998234692</v>
+        <v>40941.66998234694</v>
       </c>
       <c r="H5" t="n">
-        <v>40941.66998234692</v>
+        <v>40941.66998234694</v>
       </c>
       <c r="I5" t="n">
-        <v>50537.10295659395</v>
+        <v>50537.10295659396</v>
       </c>
       <c r="J5" t="n">
         <v>50537.10295659395</v>
       </c>
       <c r="K5" t="n">
-        <v>50537.10295659397</v>
+        <v>50537.10295659396</v>
       </c>
       <c r="L5" t="n">
-        <v>50537.10295659395</v>
+        <v>50537.10295659396</v>
       </c>
       <c r="M5" t="n">
         <v>50537.10295659397</v>
@@ -26508,7 +26508,7 @@
         <v>50537.10295659397</v>
       </c>
       <c r="O5" t="n">
-        <v>50537.10295659397</v>
+        <v>50537.10295659395</v>
       </c>
       <c r="P5" t="n">
         <v>50537.10295659397</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-93830.10768550189</v>
+        <v>-95169.89439221291</v>
       </c>
       <c r="C6" t="n">
-        <v>-18552.64652735917</v>
+        <v>-19883.624530429</v>
       </c>
       <c r="D6" t="n">
-        <v>-12191.24726624781</v>
+        <v>-13521.64876693915</v>
       </c>
       <c r="E6" t="n">
-        <v>-111631.8147010358</v>
+        <v>-112751.8957682155</v>
       </c>
       <c r="F6" t="n">
-        <v>50582.70419362845</v>
+        <v>49462.62312644881</v>
       </c>
       <c r="G6" t="n">
-        <v>-178390.1081552003</v>
+        <v>-179138.9816532917</v>
       </c>
       <c r="H6" t="n">
-        <v>100150.7078636835</v>
+        <v>99401.83436559253</v>
       </c>
       <c r="I6" t="n">
-        <v>13713.26638384146</v>
+        <v>13110.05089707682</v>
       </c>
       <c r="J6" t="n">
-        <v>114833.9691167501</v>
+        <v>114230.7536299853</v>
       </c>
       <c r="K6" t="n">
-        <v>118238.8414048798</v>
+        <v>117635.625918115</v>
       </c>
       <c r="L6" t="n">
-        <v>119511.3940264229</v>
+        <v>118908.1785396581</v>
       </c>
       <c r="M6" t="n">
-        <v>77885.55019909689</v>
+        <v>77282.33471233216</v>
       </c>
       <c r="N6" t="n">
-        <v>119600.6799041805</v>
+        <v>118997.4644174158</v>
       </c>
       <c r="O6" t="n">
-        <v>44191.52155205153</v>
+        <v>43588.30606528684</v>
       </c>
       <c r="P6" t="n">
-        <v>119600.6799041805</v>
+        <v>118997.4644174158</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>82.84723950768694</v>
       </c>
       <c r="D3" t="n">
-        <v>83.21249026304839</v>
+        <v>83.21249026304837</v>
       </c>
       <c r="E3" t="n">
         <v>222.9113743028576</v>
@@ -26752,10 +26752,10 @@
         <v>222.9113743028576</v>
       </c>
       <c r="G3" t="n">
-        <v>470.7032364998516</v>
+        <v>470.703236499852</v>
       </c>
       <c r="H3" t="n">
-        <v>470.7032364998517</v>
+        <v>470.7032364998519</v>
       </c>
       <c r="I3" t="n">
         <v>567.9342007257877</v>
@@ -26795,7 +26795,7 @@
         <v>23.50971295904437</v>
       </c>
       <c r="D4" t="n">
-        <v>23.86249467691514</v>
+        <v>23.86249467691513</v>
       </c>
       <c r="E4" t="n">
         <v>191.255994400369</v>
@@ -26804,22 +26804,22 @@
         <v>191.255994400369</v>
       </c>
       <c r="G4" t="n">
-        <v>504.6108458330617</v>
+        <v>504.6108458330619</v>
       </c>
       <c r="H4" t="n">
-        <v>504.6108458330617</v>
+        <v>504.6108458330619</v>
       </c>
       <c r="I4" t="n">
-        <v>627.5680490258517</v>
+        <v>627.5680490258518</v>
       </c>
       <c r="J4" t="n">
         <v>627.5680490258517</v>
       </c>
       <c r="K4" t="n">
-        <v>627.5680490258519</v>
+        <v>627.5680490258518</v>
       </c>
       <c r="L4" t="n">
-        <v>627.5680490258517</v>
+        <v>627.5680490258518</v>
       </c>
       <c r="M4" t="n">
         <v>627.5680490258519</v>
@@ -26828,7 +26828,7 @@
         <v>627.5680490258519</v>
       </c>
       <c r="O4" t="n">
-        <v>627.5680490258519</v>
+        <v>627.5680490258517</v>
       </c>
       <c r="P4" t="n">
         <v>627.5680490258519</v>
@@ -26965,7 +26965,7 @@
         <v>5.478429937930301</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3652507553614583</v>
+        <v>0.3652507553614299</v>
       </c>
       <c r="E3" t="n">
         <v>139.6988840398092</v>
@@ -26974,13 +26974,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>247.791862196994</v>
+        <v>247.7918621969944</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>97.23096422593602</v>
+        <v>97.23096422593585</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27017,34 +27017,34 @@
         <v>5.291405688744259</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3527817178707693</v>
+        <v>0.3527817178707551</v>
       </c>
       <c r="E4" t="n">
-        <v>167.3934997234538</v>
+        <v>167.3934997234539</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>313.3548514326927</v>
+        <v>313.354851432693</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.95720319279</v>
+        <v>122.9572031927898</v>
       </c>
       <c r="J4" t="n">
-        <v>18.21830727030012</v>
+        <v>18.2183072703</v>
       </c>
       <c r="K4" t="n">
-        <v>5.291405688744486</v>
+        <v>5.291405688744373</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3527817178705419</v>
+        <v>0.3527817178707551</v>
       </c>
       <c r="M4" t="n">
-        <v>167.3934997234541</v>
+        <v>167.393499723454</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,16 +27263,16 @@
         <v>5.291405688744259</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3527817178707693</v>
+        <v>0.3527817178707551</v>
       </c>
       <c r="M4" t="n">
-        <v>167.3934997234538</v>
+        <v>167.3934997234539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>313.3548514326927</v>
+        <v>313.354851432693</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31132,10 +31132,10 @@
         <v>15.72265591454838</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>26.87252322575217</v>
       </c>
       <c r="L3" t="n">
-        <v>36.13342375236606</v>
+        <v>27.31232273831891</v>
       </c>
       <c r="M3" t="n">
         <v>41.3150877826281</v>
@@ -31144,7 +31144,7 @@
         <v>39.56133548384178</v>
       </c>
       <c r="O3" t="n">
-        <v>35.2467715173395</v>
+        <v>39.59458313896781</v>
       </c>
       <c r="P3" t="n">
         <v>31.77814368913269</v>
@@ -31369,16 +31369,16 @@
         <v>16.83596590787816</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>28.77534732975953</v>
       </c>
       <c r="L6" t="n">
         <v>38.69200558328342</v>
       </c>
       <c r="M6" t="n">
-        <v>45.0152656093323</v>
+        <v>45.15174553168937</v>
       </c>
       <c r="N6" t="n">
-        <v>44.85274117258604</v>
+        <v>38.34014775380277</v>
       </c>
       <c r="O6" t="n">
         <v>42.3982471846556</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3345225739218023</v>
+        <v>0.3345225739218022</v>
       </c>
       <c r="H8" t="n">
-        <v>3.425929310176659</v>
+        <v>3.425929310176658</v>
       </c>
       <c r="I8" t="n">
-        <v>12.8966815311203</v>
+        <v>12.89668153112029</v>
       </c>
       <c r="J8" t="n">
-        <v>28.3921853083956</v>
+        <v>28.39218530839559</v>
       </c>
       <c r="K8" t="n">
-        <v>42.5525258625055</v>
+        <v>42.55252586250548</v>
       </c>
       <c r="L8" t="n">
-        <v>52.79017108416487</v>
+        <v>52.79017108416485</v>
       </c>
       <c r="M8" t="n">
-        <v>58.73923690814672</v>
+        <v>58.73923690814669</v>
       </c>
       <c r="N8" t="n">
-        <v>59.68969917130205</v>
+        <v>59.68969917130202</v>
       </c>
       <c r="O8" t="n">
-        <v>56.36329032686712</v>
+        <v>56.3632903268671</v>
       </c>
       <c r="P8" t="n">
-        <v>48.10476428317261</v>
+        <v>48.1047642831726</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459806</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>21.01345363411544</v>
+        <v>21.01345363411543</v>
       </c>
       <c r="S8" t="n">
-        <v>7.622933153243078</v>
+        <v>7.622933153243076</v>
       </c>
       <c r="T8" t="n">
         <v>1.46437256734269</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02676180591374418</v>
+        <v>0.02676180591374417</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,34 +31594,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1789853564148588</v>
+        <v>0.1789853564148587</v>
       </c>
       <c r="H9" t="n">
-        <v>1.728621731690874</v>
+        <v>1.728621731690873</v>
       </c>
       <c r="I9" t="n">
-        <v>6.162434420423867</v>
+        <v>6.162434420423866</v>
       </c>
       <c r="J9" t="n">
         <v>16.91019106373892</v>
       </c>
       <c r="K9" t="n">
-        <v>28.90220994353446</v>
+        <v>28.90220994353445</v>
       </c>
       <c r="L9" t="n">
-        <v>38.86258802332275</v>
+        <v>38.86258802332274</v>
       </c>
       <c r="M9" t="n">
-        <v>45.35080719336137</v>
+        <v>45.35080719336136</v>
       </c>
       <c r="N9" t="n">
-        <v>45.20552289045681</v>
+        <v>45.20552289045679</v>
       </c>
       <c r="O9" t="n">
-        <v>36.28321681809376</v>
+        <v>36.28321681809378</v>
       </c>
       <c r="P9" t="n">
-        <v>34.17835284030756</v>
+        <v>34.17835284030755</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
@@ -31630,10 +31630,10 @@
         <v>11.1127925675822</v>
       </c>
       <c r="S9" t="n">
-        <v>3.324574493056696</v>
+        <v>3.324574493056694</v>
       </c>
       <c r="T9" t="n">
-        <v>0.7214365901107683</v>
+        <v>0.7214365901107681</v>
       </c>
       <c r="U9" t="n">
         <v>0.0117753523957144</v>
@@ -31679,10 +31679,10 @@
         <v>1.334128122578055</v>
       </c>
       <c r="I10" t="n">
-        <v>4.512572422789576</v>
+        <v>4.512572422789574</v>
       </c>
       <c r="J10" t="n">
-        <v>10.60891043894635</v>
+        <v>10.60891043894634</v>
       </c>
       <c r="K10" t="n">
         <v>17.43369877970095</v>
@@ -31691,31 +31691,31 @@
         <v>22.30913222560481</v>
       </c>
       <c r="M10" t="n">
-        <v>23.52185196074989</v>
+        <v>23.52185196074988</v>
       </c>
       <c r="N10" t="n">
-        <v>22.96255489504745</v>
+        <v>22.96255489504744</v>
       </c>
       <c r="O10" t="n">
-        <v>21.20963604278487</v>
+        <v>21.20963604278486</v>
       </c>
       <c r="P10" t="n">
-        <v>18.14850771245238</v>
+        <v>18.14850771245237</v>
       </c>
       <c r="Q10" t="n">
-        <v>12.56508602972031</v>
+        <v>12.5650860297203</v>
       </c>
       <c r="R10" t="n">
-        <v>6.747032407230118</v>
+        <v>6.747032407230116</v>
       </c>
       <c r="S10" t="n">
         <v>2.615054816955142</v>
       </c>
       <c r="T10" t="n">
-        <v>0.6411454167808645</v>
+        <v>0.6411454167808642</v>
       </c>
       <c r="U10" t="n">
-        <v>0.008184835107840835</v>
+        <v>0.008184835107840831</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8961261278506832</v>
+        <v>0.8961261278506831</v>
       </c>
       <c r="H11" t="n">
         <v>9.177451706850812</v>
@@ -31773,7 +31773,7 @@
         <v>157.3519069469614</v>
       </c>
       <c r="N11" t="n">
-        <v>159.8980253077172</v>
+        <v>159.8980253077171</v>
       </c>
       <c r="O11" t="n">
         <v>150.9871711239019</v>
@@ -31782,13 +31782,13 @@
         <v>128.8640573425882</v>
       </c>
       <c r="Q11" t="n">
-        <v>96.77154038893555</v>
+        <v>96.77154038893553</v>
       </c>
       <c r="R11" t="n">
         <v>56.29128287860053</v>
       </c>
       <c r="S11" t="n">
-        <v>20.42047413839747</v>
+        <v>20.42047413839746</v>
       </c>
       <c r="T11" t="n">
         <v>3.922792124666368</v>
@@ -31834,7 +31834,7 @@
         <v>0.4794697485004862</v>
       </c>
       <c r="H12" t="n">
-        <v>4.630668360517855</v>
+        <v>4.630668360517854</v>
       </c>
       <c r="I12" t="n">
         <v>16.50805932337201</v>
@@ -31858,7 +31858,7 @@
         <v>114.0780502057275</v>
       </c>
       <c r="P12" t="n">
-        <v>91.55769258865865</v>
+        <v>91.55769258865864</v>
       </c>
       <c r="Q12" t="n">
         <v>61.20389280858839</v>
@@ -31870,7 +31870,7 @@
         <v>8.905940284647183</v>
       </c>
       <c r="T12" t="n">
-        <v>1.932599556455907</v>
+        <v>1.932599556455906</v>
       </c>
       <c r="U12" t="n">
         <v>0.03154406240134779</v>
@@ -31922,22 +31922,22 @@
         <v>28.41937308120202</v>
       </c>
       <c r="K13" t="n">
-        <v>46.70176005886098</v>
+        <v>46.70176005886097</v>
       </c>
       <c r="L13" t="n">
-        <v>59.76217402211368</v>
+        <v>59.76217402211366</v>
       </c>
       <c r="M13" t="n">
         <v>63.01083323121595</v>
       </c>
       <c r="N13" t="n">
-        <v>61.51257645311483</v>
+        <v>61.51257645311482</v>
       </c>
       <c r="O13" t="n">
-        <v>56.81682045345625</v>
+        <v>56.81682045345624</v>
       </c>
       <c r="P13" t="n">
-        <v>48.61660530697076</v>
+        <v>48.61660530697075</v>
       </c>
       <c r="Q13" t="n">
         <v>33.6596175197315</v>
@@ -31946,13 +31946,13 @@
         <v>18.07409274265465</v>
       </c>
       <c r="S13" t="n">
-        <v>7.005264008829146</v>
+        <v>7.005264008829145</v>
       </c>
       <c r="T13" t="n">
         <v>1.717513867579394</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02192570894782209</v>
+        <v>0.02192570894782208</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.892274317587342</v>
+        <v>1.892274317587343</v>
       </c>
       <c r="H17" t="n">
-        <v>19.37925435499137</v>
+        <v>19.37925435499139</v>
       </c>
       <c r="I17" t="n">
-        <v>72.95190562878606</v>
+        <v>72.95190562878612</v>
       </c>
       <c r="J17" t="n">
-        <v>160.6044173623288</v>
+        <v>160.6044173623289</v>
       </c>
       <c r="K17" t="n">
-        <v>240.704389225801</v>
+        <v>240.7043892258012</v>
       </c>
       <c r="L17" t="n">
-        <v>298.6150793726647</v>
+        <v>298.6150793726649</v>
       </c>
       <c r="M17" t="n">
-        <v>332.2668127680586</v>
+        <v>332.2668127680588</v>
       </c>
       <c r="N17" t="n">
-        <v>337.6432371729036</v>
+        <v>337.6432371729039</v>
       </c>
       <c r="O17" t="n">
-        <v>318.8269344273945</v>
+        <v>318.8269344273947</v>
       </c>
       <c r="P17" t="n">
-        <v>272.111412211957</v>
+        <v>272.1114122119571</v>
       </c>
       <c r="Q17" t="n">
-        <v>204.3443382133602</v>
+        <v>204.3443382133603</v>
       </c>
       <c r="R17" t="n">
         <v>118.865576602146</v>
       </c>
       <c r="S17" t="n">
-        <v>43.1202010120216</v>
+        <v>43.12020101202162</v>
       </c>
       <c r="T17" t="n">
-        <v>8.283430825238593</v>
+        <v>8.283430825238598</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1513819454069873</v>
+        <v>0.1513819454069874</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.012456018131756</v>
+        <v>1.012456018131757</v>
       </c>
       <c r="H18" t="n">
-        <v>9.778193648798807</v>
+        <v>9.778193648798814</v>
       </c>
       <c r="I18" t="n">
-        <v>34.85868308041355</v>
+        <v>34.85868308041357</v>
       </c>
       <c r="J18" t="n">
-        <v>95.65489073059723</v>
+        <v>95.6548907305973</v>
       </c>
       <c r="K18" t="n">
-        <v>163.4894439454249</v>
+        <v>163.489443945425</v>
       </c>
       <c r="L18" t="n">
-        <v>219.831733235143</v>
+        <v>219.8317332351432</v>
       </c>
       <c r="M18" t="n">
-        <v>256.5332638924191</v>
+        <v>256.5332638924193</v>
       </c>
       <c r="N18" t="n">
-        <v>263.322936049101</v>
+        <v>263.3229360491011</v>
       </c>
       <c r="O18" t="n">
-        <v>240.8890421736552</v>
+        <v>240.8890421736554</v>
       </c>
       <c r="P18" t="n">
-        <v>193.3346934974579</v>
+        <v>193.3346934974581</v>
       </c>
       <c r="Q18" t="n">
-        <v>129.2391225952046</v>
+        <v>129.2391225952047</v>
       </c>
       <c r="R18" t="n">
-        <v>62.86108505558398</v>
+        <v>62.86108505558403</v>
       </c>
       <c r="S18" t="n">
-        <v>18.80592647714029</v>
+        <v>18.8059264771403</v>
       </c>
       <c r="T18" t="n">
-        <v>4.080908248522297</v>
+        <v>4.0809082485223</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06660894856129979</v>
+        <v>0.06660894856129984</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8488091149997323</v>
+        <v>0.848809114999733</v>
       </c>
       <c r="H19" t="n">
-        <v>7.546684676997626</v>
+        <v>7.546684676997631</v>
       </c>
       <c r="I19" t="n">
-        <v>25.52600502199196</v>
+        <v>25.52600502199198</v>
       </c>
       <c r="J19" t="n">
-        <v>60.01080443048107</v>
+        <v>60.01080443048112</v>
       </c>
       <c r="K19" t="n">
-        <v>98.61618626996889</v>
+        <v>98.61618626996896</v>
       </c>
       <c r="L19" t="n">
-        <v>126.1947660609602</v>
+        <v>126.1947660609603</v>
       </c>
       <c r="M19" t="n">
-        <v>133.054686999458</v>
+        <v>133.0546869994581</v>
       </c>
       <c r="N19" t="n">
-        <v>129.8909439344591</v>
+        <v>129.8909439344592</v>
       </c>
       <c r="O19" t="n">
-        <v>119.9753101819622</v>
+        <v>119.9753101819623</v>
       </c>
       <c r="P19" t="n">
-        <v>102.6596042359676</v>
+        <v>102.6596042359677</v>
       </c>
       <c r="Q19" t="n">
-        <v>71.0761887114776</v>
+        <v>71.07618871147764</v>
       </c>
       <c r="R19" t="n">
-        <v>38.16554438898796</v>
+        <v>38.16554438898798</v>
       </c>
       <c r="S19" t="n">
-        <v>14.79242794049533</v>
+        <v>14.79242794049534</v>
       </c>
       <c r="T19" t="n">
-        <v>3.626729854998855</v>
+        <v>3.626729854998858</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04629867899998546</v>
+        <v>0.04629867899998549</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.892274317587342</v>
+        <v>1.892274317587343</v>
       </c>
       <c r="H20" t="n">
-        <v>19.37925435499137</v>
+        <v>19.37925435499138</v>
       </c>
       <c r="I20" t="n">
-        <v>72.95190562878608</v>
+        <v>72.95190562878611</v>
       </c>
       <c r="J20" t="n">
-        <v>160.6044173623288</v>
+        <v>160.6044173623289</v>
       </c>
       <c r="K20" t="n">
-        <v>240.7043892258011</v>
+        <v>240.7043892258012</v>
       </c>
       <c r="L20" t="n">
-        <v>298.6150793726648</v>
+        <v>298.6150793726649</v>
       </c>
       <c r="M20" t="n">
-        <v>332.2668127680586</v>
+        <v>332.2668127680587</v>
       </c>
       <c r="N20" t="n">
-        <v>337.6432371729037</v>
+        <v>337.6432371729038</v>
       </c>
       <c r="O20" t="n">
-        <v>318.8269344273945</v>
+        <v>318.8269344273946</v>
       </c>
       <c r="P20" t="n">
-        <v>272.111412211957</v>
+        <v>272.1114122119571</v>
       </c>
       <c r="Q20" t="n">
-        <v>204.3443382133602</v>
+        <v>204.3443382133603</v>
       </c>
       <c r="R20" t="n">
         <v>118.865576602146</v>
       </c>
       <c r="S20" t="n">
-        <v>43.1202010120216</v>
+        <v>43.12020101202162</v>
       </c>
       <c r="T20" t="n">
-        <v>8.283430825238595</v>
+        <v>8.283430825238597</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1513819454069873</v>
+        <v>0.1513819454069874</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,28 +32545,28 @@
         <v>1.012456018131757</v>
       </c>
       <c r="H21" t="n">
-        <v>9.778193648798808</v>
+        <v>9.778193648798812</v>
       </c>
       <c r="I21" t="n">
-        <v>34.85868308041355</v>
+        <v>34.85868308041356</v>
       </c>
       <c r="J21" t="n">
-        <v>95.65489073059724</v>
+        <v>95.65489073059727</v>
       </c>
       <c r="K21" t="n">
-        <v>163.4894439454249</v>
+        <v>163.489443945425</v>
       </c>
       <c r="L21" t="n">
-        <v>219.831733235143</v>
+        <v>219.8317332351431</v>
       </c>
       <c r="M21" t="n">
-        <v>256.5332638924191</v>
+        <v>256.5332638924193</v>
       </c>
       <c r="N21" t="n">
-        <v>263.322936049101</v>
+        <v>263.3229360491011</v>
       </c>
       <c r="O21" t="n">
-        <v>240.8890421736552</v>
+        <v>240.8890421736553</v>
       </c>
       <c r="P21" t="n">
         <v>193.334693497458</v>
@@ -32575,16 +32575,16 @@
         <v>129.2391225952046</v>
       </c>
       <c r="R21" t="n">
-        <v>62.86108505558399</v>
+        <v>62.86108505558402</v>
       </c>
       <c r="S21" t="n">
-        <v>18.80592647714029</v>
+        <v>18.8059264771403</v>
       </c>
       <c r="T21" t="n">
-        <v>4.080908248522298</v>
+        <v>4.0809082485223</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0666089485612998</v>
+        <v>0.06660894856129983</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,22 +32621,22 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8488091149997324</v>
+        <v>0.8488091149997328</v>
       </c>
       <c r="H22" t="n">
-        <v>7.546684676997627</v>
+        <v>7.546684676997629</v>
       </c>
       <c r="I22" t="n">
-        <v>25.52600502199196</v>
+        <v>25.52600502199197</v>
       </c>
       <c r="J22" t="n">
-        <v>60.01080443048108</v>
+        <v>60.0108044304811</v>
       </c>
       <c r="K22" t="n">
-        <v>98.61618626996889</v>
+        <v>98.61618626996894</v>
       </c>
       <c r="L22" t="n">
-        <v>126.1947660609602</v>
+        <v>126.1947660609603</v>
       </c>
       <c r="M22" t="n">
         <v>133.0546869994581</v>
@@ -32645,25 +32645,25 @@
         <v>129.8909439344592</v>
       </c>
       <c r="O22" t="n">
-        <v>119.9753101819622</v>
+        <v>119.9753101819623</v>
       </c>
       <c r="P22" t="n">
         <v>102.6596042359676</v>
       </c>
       <c r="Q22" t="n">
-        <v>71.0761887114776</v>
+        <v>71.07618871147763</v>
       </c>
       <c r="R22" t="n">
-        <v>38.16554438898796</v>
+        <v>38.16554438898797</v>
       </c>
       <c r="S22" t="n">
-        <v>14.79242794049533</v>
+        <v>14.79242794049534</v>
       </c>
       <c r="T22" t="n">
-        <v>3.626729854998856</v>
+        <v>3.626729854998857</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04629867899998546</v>
+        <v>0.04629867899998548</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34234,7 +34234,7 @@
         <v>155.9354431879559</v>
       </c>
       <c r="R42" t="n">
-        <v>75.84600514598353</v>
+        <v>75.84600514598354</v>
       </c>
       <c r="S42" t="n">
         <v>22.69057867994065</v>
@@ -34365,7 +34365,7 @@
         <v>23.38233621380089</v>
       </c>
       <c r="I44" t="n">
-        <v>88.02123929037602</v>
+        <v>88.02123929037562</v>
       </c>
       <c r="J44" t="n">
         <v>193.7797200757802</v>
@@ -34780,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4.473289392418835</v>
       </c>
       <c r="L3" t="n">
-        <v>13.61833703813651</v>
+        <v>4.797236024089351</v>
       </c>
       <c r="M3" t="n">
         <v>18.21830727030012</v>
@@ -34792,7 +34792,7 @@
         <v>18.21830727030012</v>
       </c>
       <c r="O3" t="n">
-        <v>12.07488179511728</v>
+        <v>16.42269341674559</v>
       </c>
       <c r="P3" t="n">
         <v>10.00730248430402</v>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>6.376113496426193</v>
       </c>
       <c r="L6" t="n">
         <v>16.17691886905386</v>
       </c>
       <c r="M6" t="n">
-        <v>21.91848509700432</v>
+        <v>22.05496501936139</v>
       </c>
       <c r="N6" t="n">
-        <v>23.50971295904437</v>
+        <v>16.99711954026111</v>
       </c>
       <c r="O6" t="n">
         <v>19.22635746243337</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>6.787925067696158</v>
+        <v>6.787925067696143</v>
       </c>
       <c r="L8" t="n">
-        <v>14.47812865154194</v>
+        <v>14.47812865154192</v>
       </c>
       <c r="M8" t="n">
-        <v>21.3079740087149</v>
+        <v>21.30797400871488</v>
       </c>
       <c r="N8" t="n">
-        <v>22.41007633685602</v>
+        <v>22.410076336856</v>
       </c>
       <c r="O8" t="n">
-        <v>18.97233097084302</v>
+        <v>18.972330970843</v>
       </c>
       <c r="P8" t="n">
-        <v>10.52940247294131</v>
+        <v>10.5294024729413</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>6.502976110201125</v>
+        <v>6.502976110201114</v>
       </c>
       <c r="L9" t="n">
-        <v>16.34750130909319</v>
+        <v>16.34750130909318</v>
       </c>
       <c r="M9" t="n">
-        <v>22.25402668103339</v>
+        <v>22.25402668103338</v>
       </c>
       <c r="N9" t="n">
-        <v>23.86249467691514</v>
+        <v>23.86249467691513</v>
       </c>
       <c r="O9" t="n">
-        <v>13.11132709587154</v>
+        <v>13.11132709587155</v>
       </c>
       <c r="P9" t="n">
-        <v>12.4075116354789</v>
+        <v>12.40751163547888</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35336,13 +35336,13 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3903723299035917</v>
+        <v>0.3903723299035846</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9464120692640705</v>
+        <v>0.9464120692640599</v>
       </c>
       <c r="N10" t="n">
-        <v>2.213653919447058</v>
+        <v>2.213653919447051</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -35412,7 +35412,7 @@
         <v>46.63762545808047</v>
       </c>
       <c r="K11" t="n">
-        <v>78.22600314077711</v>
+        <v>78.2260031407771</v>
       </c>
       <c r="L11" t="n">
         <v>103.1033814881739</v>
@@ -35427,10 +35427,10 @@
         <v>113.5962117678778</v>
       </c>
       <c r="P11" t="n">
-        <v>91.28869553235688</v>
+        <v>91.28869553235685</v>
       </c>
       <c r="Q11" t="n">
-        <v>60.64686578433751</v>
+        <v>60.64686578433749</v>
       </c>
       <c r="R11" t="n">
         <v>21.25863298380406</v>
@@ -35488,31 +35488,31 @@
         <v>0.3356725733720047</v>
       </c>
       <c r="J12" t="n">
-        <v>24.68826221249551</v>
+        <v>24.6882622124955</v>
       </c>
       <c r="K12" t="n">
         <v>55.02461586202807</v>
       </c>
       <c r="L12" t="n">
-        <v>81.59083389768524</v>
+        <v>81.59083389768523</v>
       </c>
       <c r="M12" t="n">
-        <v>98.38991848272941</v>
+        <v>98.3899184827294</v>
       </c>
       <c r="N12" t="n">
         <v>103.3590622089598</v>
       </c>
       <c r="O12" t="n">
-        <v>90.90616048350532</v>
+        <v>90.9061604835053</v>
       </c>
       <c r="P12" t="n">
-        <v>69.78685138383</v>
+        <v>69.78685138382997</v>
       </c>
       <c r="Q12" t="n">
         <v>38.45685451960989</v>
       </c>
       <c r="R12" t="n">
-        <v>6.096263762754479</v>
+        <v>6.096263762754475</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>7.782617097300157</v>
+        <v>7.782617097300154</v>
       </c>
       <c r="K13" t="n">
-        <v>25.73710560614898</v>
+        <v>25.73710560614897</v>
       </c>
       <c r="L13" t="n">
-        <v>37.84341412641245</v>
+        <v>37.84341412641244</v>
       </c>
       <c r="M13" t="n">
-        <v>40.43539333973014</v>
+        <v>40.43539333973013</v>
       </c>
       <c r="N13" t="n">
-        <v>40.76367547751444</v>
+        <v>40.76367547751443</v>
       </c>
       <c r="O13" t="n">
         <v>34.3176329550318</v>
       </c>
       <c r="P13" t="n">
-        <v>26.23580464898428</v>
+        <v>26.23580464898427</v>
       </c>
       <c r="Q13" t="n">
-        <v>9.040054754946556</v>
+        <v>9.040054754946549</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>38.40400308482256</v>
+        <v>38.40400308482262</v>
       </c>
       <c r="J17" t="n">
-        <v>131.1844578767423</v>
+        <v>131.1844578767424</v>
       </c>
       <c r="K17" t="n">
-        <v>204.9397884309917</v>
+        <v>204.9397884309919</v>
       </c>
       <c r="L17" t="n">
-        <v>260.3030369400417</v>
+        <v>260.303036940042</v>
       </c>
       <c r="M17" t="n">
-        <v>294.8355498686267</v>
+        <v>294.835549868627</v>
       </c>
       <c r="N17" t="n">
-        <v>300.3636143384576</v>
+        <v>300.3636143384579</v>
       </c>
       <c r="O17" t="n">
-        <v>281.4359750713704</v>
+        <v>281.4359750713706</v>
       </c>
       <c r="P17" t="n">
-        <v>234.5360504017257</v>
+        <v>234.5360504017258</v>
       </c>
       <c r="Q17" t="n">
-        <v>168.2196636087622</v>
+        <v>168.2196636087623</v>
       </c>
       <c r="R17" t="n">
-        <v>83.83292670734949</v>
+        <v>83.83292670734957</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>18.68629633041355</v>
+        <v>18.68629633041357</v>
       </c>
       <c r="J18" t="n">
-        <v>75.0437763972639</v>
+        <v>75.04377639726397</v>
       </c>
       <c r="K18" t="n">
-        <v>141.0902101120916</v>
+        <v>141.0902101120917</v>
       </c>
       <c r="L18" t="n">
-        <v>197.3166465209134</v>
+        <v>197.3166465209136</v>
       </c>
       <c r="M18" t="n">
-        <v>233.4364833800911</v>
+        <v>233.4364833800913</v>
       </c>
       <c r="N18" t="n">
-        <v>241.9799078355593</v>
+        <v>241.9799078355595</v>
       </c>
       <c r="O18" t="n">
-        <v>217.717152451433</v>
+        <v>217.7171524514332</v>
       </c>
       <c r="P18" t="n">
-        <v>171.5638522926293</v>
+        <v>171.5638522926294</v>
       </c>
       <c r="Q18" t="n">
-        <v>106.4920843062261</v>
+        <v>106.4920843062262</v>
       </c>
       <c r="R18" t="n">
-        <v>39.18816566143984</v>
+        <v>39.18816566143989</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>39.37404844657921</v>
+        <v>39.37404844657925</v>
       </c>
       <c r="K19" t="n">
-        <v>77.6515318172569</v>
+        <v>77.65153181725697</v>
       </c>
       <c r="L19" t="n">
-        <v>104.276006165259</v>
+        <v>104.2760061652591</v>
       </c>
       <c r="M19" t="n">
-        <v>110.4792471079722</v>
+        <v>110.4792471079723</v>
       </c>
       <c r="N19" t="n">
-        <v>109.1420429588587</v>
+        <v>109.1420429588589</v>
       </c>
       <c r="O19" t="n">
-        <v>97.47612268353777</v>
+        <v>97.47612268353785</v>
       </c>
       <c r="P19" t="n">
-        <v>80.27880357798111</v>
+        <v>80.27880357798118</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.45662594669265</v>
+        <v>46.4566259466927</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>38.40400308482258</v>
+        <v>38.40400308482261</v>
       </c>
       <c r="J20" t="n">
-        <v>131.1844578767423</v>
+        <v>131.1844578767424</v>
       </c>
       <c r="K20" t="n">
-        <v>204.9397884309917</v>
+        <v>204.9397884309918</v>
       </c>
       <c r="L20" t="n">
-        <v>260.3030369400418</v>
+        <v>260.3030369400419</v>
       </c>
       <c r="M20" t="n">
-        <v>294.8355498686268</v>
+        <v>294.8355498686269</v>
       </c>
       <c r="N20" t="n">
-        <v>300.3636143384577</v>
+        <v>300.3636143384578</v>
       </c>
       <c r="O20" t="n">
-        <v>281.4359750713704</v>
+        <v>281.4359750713705</v>
       </c>
       <c r="P20" t="n">
-        <v>234.5360504017257</v>
+        <v>234.5360504017258</v>
       </c>
       <c r="Q20" t="n">
-        <v>168.2196636087622</v>
+        <v>168.2196636087623</v>
       </c>
       <c r="R20" t="n">
-        <v>83.83292670734951</v>
+        <v>83.83292670734954</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>18.68629633041355</v>
+        <v>18.68629633041356</v>
       </c>
       <c r="J21" t="n">
-        <v>75.04377639726391</v>
+        <v>75.04377639726394</v>
       </c>
       <c r="K21" t="n">
         <v>141.0902101120916</v>
@@ -36208,22 +36208,22 @@
         <v>197.3166465209135</v>
       </c>
       <c r="M21" t="n">
-        <v>233.4364833800912</v>
+        <v>233.4364833800913</v>
       </c>
       <c r="N21" t="n">
         <v>241.9799078355594</v>
       </c>
       <c r="O21" t="n">
-        <v>217.717152451433</v>
+        <v>217.7171524514331</v>
       </c>
       <c r="P21" t="n">
-        <v>171.5638522926293</v>
+        <v>171.5638522926294</v>
       </c>
       <c r="Q21" t="n">
         <v>106.4920843062261</v>
       </c>
       <c r="R21" t="n">
-        <v>39.18816566143985</v>
+        <v>39.18816566143988</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>39.37404844657921</v>
+        <v>39.37404844657924</v>
       </c>
       <c r="K22" t="n">
-        <v>77.6515318172569</v>
+        <v>77.65153181725694</v>
       </c>
       <c r="L22" t="n">
-        <v>104.276006165259</v>
+        <v>104.2760061652591</v>
       </c>
       <c r="M22" t="n">
-        <v>110.4792471079722</v>
+        <v>110.4792471079723</v>
       </c>
       <c r="N22" t="n">
         <v>109.1420429588588</v>
       </c>
       <c r="O22" t="n">
-        <v>97.47612268353778</v>
+        <v>97.47612268353782</v>
       </c>
       <c r="P22" t="n">
-        <v>80.27880357798112</v>
+        <v>80.27880357798115</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.45662594669265</v>
+        <v>46.45662594669268</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>133.1884048989774</v>
       </c>
       <c r="R42" t="n">
-        <v>52.17308575183938</v>
+        <v>52.17308575183939</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>53.47333674641251</v>
+        <v>53.47333674641212</v>
       </c>
       <c r="J44" t="n">
         <v>164.3597605901937</v>
